--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d656235-Reviews-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>122</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Custom-Hotel-Los-Angeles-Airport.h1683637.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1365 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r589593433-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>656235</t>
+  </si>
+  <si>
+    <t>589593433</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Ruined my shirt</t>
+  </si>
+  <si>
+    <t>Stayed there twice. During one stay, a broken iron ruined my shirt. Management politely apologized and promised me a refund, which was never issued. I do not recommend this hotel for business travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed there twice. During one stay, a broken iron ruined my shirt. Management politely apologized and promised me a refund, which was never issued. I do not recommend this hotel for business travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r589327161-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>589327161</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Modern attempt, but without the luxury</t>
+  </si>
+  <si>
+    <t>Booked the Custom to make my move from one apartment to the other smoother, and after a quick trip out of town.
+The shuttle experience was smooth- just as I called to see if it was coming around, he pulled up and we were on our way.
+Check-in was also fine- no problems there.  The lobby is sleek and modern, and the staff is decidedly youthful.  Custom seems to be going for an urban contemporary feel, and the lobby delivers.  In the mornings there is a nice-looking breakfast set-up- I was rushing off to work so I didn't get to investigate further, but I wanted to.
+ The hotel is in a great location- obviously convenient to the airport for short-term visitors, but also within walking distance to restaurants, and immediately adjacent to a supermarket (and bowling alley, if you're into that kind of thing).
+My view, from both rooms (more on that shortly), was very cool- the LAX runway in full action.
+Beyond that . . . things lose their luster a bit.  There is a hotel trend of taking older buildings and "modernizing" them cosmetically, with neutral paint, hip art, and minimalist furniture.  Some are compelled by it, and others, like myself, aren't.
+The elevator was the first clue- it was obviously old, and looked like a freight elevator with industrial carpeting on the floor, and on the elevator walls, if I recall correctly.
+The carpeting continued into the...Booked the Custom to make my move from one apartment to the other smoother, and after a quick trip out of town.The shuttle experience was smooth- just as I called to see if it was coming around, he pulled up and we were on our way.Check-in was also fine- no problems there.  The lobby is sleek and modern, and the staff is decidedly youthful.  Custom seems to be going for an urban contemporary feel, and the lobby delivers.  In the mornings there is a nice-looking breakfast set-up- I was rushing off to work so I didn't get to investigate further, but I wanted to. The hotel is in a great location- obviously convenient to the airport for short-term visitors, but also within walking distance to restaurants, and immediately adjacent to a supermarket (and bowling alley, if you're into that kind of thing).My view, from both rooms (more on that shortly), was very cool- the LAX runway in full action.Beyond that . . . things lose their luster a bit.  There is a hotel trend of taking older buildings and "modernizing" them cosmetically, with neutral paint, hip art, and minimalist furniture.  Some are compelled by it, and others, like myself, aren't.The elevator was the first clue- it was obviously old, and looked like a freight elevator with industrial carpeting on the floor, and on the elevator walls, if I recall correctly.The carpeting continued into the hallways upstairs, painted in extremely dark colors, like an amateur attempt at replicating hotels like W or SLS, that are dark but luxurious, creating a sultry atmosphere.  Custom's hallways are less sexy and more . . . ominous?  The strange carpet doesn't end in the high-traffic area of the hallways- no, it's in the guest rooms, too.  There's also a strange, old smell in the halls.  Not bad, just . . . old.In my first room, the tv wouldn't turn on.  The good news: when I called the front desk, they contacted maintenance and got back to me very quickly.  The bad news: there would be no fixing the tv and I had to change rooms.  Sigh, okay.When I went back downstairs to get my new key, I noticed that the clerk was taking another call, promising to contact maintenance right away, I assume for another guest.When I got to my second room, I noticed that one of the elevators was out of order.  It was just a lot of malfunction to observe in such a short period of time.An upside to sparse, minimalist furniture is that the rooms seem spacious, I guess.  It begs the question, though, why they wouldn't make those king rooms instead of single queen rooms.  The beds are low to the floor, as are the chairs, which isn't good or bad- it's just a matter of preference, I guess.  Another guest in the elevator, unprompted by me, said he was disappointed because it felt like he was staying in a college dorm room.All of that said, the bed was clean and relatively comfortable.  Also, one thing Custom got 100% right: the bathroom.  Even though I hate pedestal sinks, theirs have large countertops that are more than adequate for storing your toiletries.The showerhead was huge with great water pressure and temperature, and although the tub was older, it appeared clean.  The towels were thick and fluffier than most that you encounter in hotels. Overall, my experience was pleasant, but the facilities at Custom just don't give off a feeling of modern luxury- and maybe that was too much to expect.  After all, it was a decent rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Booked the Custom to make my move from one apartment to the other smoother, and after a quick trip out of town.
+The shuttle experience was smooth- just as I called to see if it was coming around, he pulled up and we were on our way.
+Check-in was also fine- no problems there.  The lobby is sleek and modern, and the staff is decidedly youthful.  Custom seems to be going for an urban contemporary feel, and the lobby delivers.  In the mornings there is a nice-looking breakfast set-up- I was rushing off to work so I didn't get to investigate further, but I wanted to.
+ The hotel is in a great location- obviously convenient to the airport for short-term visitors, but also within walking distance to restaurants, and immediately adjacent to a supermarket (and bowling alley, if you're into that kind of thing).
+My view, from both rooms (more on that shortly), was very cool- the LAX runway in full action.
+Beyond that . . . things lose their luster a bit.  There is a hotel trend of taking older buildings and "modernizing" them cosmetically, with neutral paint, hip art, and minimalist furniture.  Some are compelled by it, and others, like myself, aren't.
+The elevator was the first clue- it was obviously old, and looked like a freight elevator with industrial carpeting on the floor, and on the elevator walls, if I recall correctly.
+The carpeting continued into the...Booked the Custom to make my move from one apartment to the other smoother, and after a quick trip out of town.The shuttle experience was smooth- just as I called to see if it was coming around, he pulled up and we were on our way.Check-in was also fine- no problems there.  The lobby is sleek and modern, and the staff is decidedly youthful.  Custom seems to be going for an urban contemporary feel, and the lobby delivers.  In the mornings there is a nice-looking breakfast set-up- I was rushing off to work so I didn't get to investigate further, but I wanted to. The hotel is in a great location- obviously convenient to the airport for short-term visitors, but also within walking distance to restaurants, and immediately adjacent to a supermarket (and bowling alley, if you're into that kind of thing).My view, from both rooms (more on that shortly), was very cool- the LAX runway in full action.Beyond that . . . things lose their luster a bit.  There is a hotel trend of taking older buildings and "modernizing" them cosmetically, with neutral paint, hip art, and minimalist furniture.  Some are compelled by it, and others, like myself, aren't.The elevator was the first clue- it was obviously old, and looked like a freight elevator with industrial carpeting on the floor, and on the elevator walls, if I recall correctly.The carpeting continued into the hallways upstairs, painted in extremely dark colors, like an amateur attempt at replicating hotels like W or SLS, that are dark but luxurious, creating a sultry atmosphere.  Custom's hallways are less sexy and more . . . ominous?  The strange carpet doesn't end in the high-traffic area of the hallways- no, it's in the guest rooms, too.  There's also a strange, old smell in the halls.  Not bad, just . . . old.In my first room, the tv wouldn't turn on.  The good news: when I called the front desk, they contacted maintenance and got back to me very quickly.  The bad news: there would be no fixing the tv and I had to change rooms.  Sigh, okay.When I went back downstairs to get my new key, I noticed that the clerk was taking another call, promising to contact maintenance right away, I assume for another guest.When I got to my second room, I noticed that one of the elevators was out of order.  It was just a lot of malfunction to observe in such a short period of time.An upside to sparse, minimalist furniture is that the rooms seem spacious, I guess.  It begs the question, though, why they wouldn't make those king rooms instead of single queen rooms.  The beds are low to the floor, as are the chairs, which isn't good or bad- it's just a matter of preference, I guess.  Another guest in the elevator, unprompted by me, said he was disappointed because it felt like he was staying in a college dorm room.All of that said, the bed was clean and relatively comfortable.  Also, one thing Custom got 100% right: the bathroom.  Even though I hate pedestal sinks, theirs have large countertops that are more than adequate for storing your toiletries.The showerhead was huge with great water pressure and temperature, and although the tub was older, it appeared clean.  The towels were thick and fluffier than most that you encounter in hotels. Overall, my experience was pleasant, but the facilities at Custom just don't give off a feeling of modern luxury- and maybe that was too much to expect.  After all, it was a decent rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r588576931-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588576931</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Do not reserve a parking spot if you have a flight to catch!</t>
+  </si>
+  <si>
+    <t>BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that...BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that was already bought and paid for and leave a customer hanging! PLEASE DO NOT TAKE YOUR CHANCE WITH THIS HOTEL PARKING....you could be left in limbo and miss your flight! Worst customer experience in my history and that says a lot. I can only hope that way.com would remove this hotel from the line up of choices. Thank's to way.com for hooking me up with another spot at The Hyatt as quickly as they could. I barely made my flight, but I survived this ordeal.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that...BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that was already bought and paid for and leave a customer hanging! PLEASE DO NOT TAKE YOUR CHANCE WITH THIS HOTEL PARKING....you could be left in limbo and miss your flight! Worst customer experience in my history and that says a lot. I can only hope that way.com would remove this hotel from the line up of choices. Thank's to way.com for hooking me up with another spot at The Hyatt as quickly as they could. I barely made my flight, but I survived this ordeal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r586286639-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>586286639</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprise surprise surprise </t>
+  </si>
+  <si>
+    <t>Found this place after an uber driver dropped me off in the wrong place. Phoned ahead to make the booking. Easy and helpful staff on the phone. Easy check in , free shuttle to LAX. My room over looked the runway!Comfy bed shower over bath  nice simple room decor. Great bar and pool area just next door. Will certainly stay here again. Not expensive at all and nicer than some of the big chain hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Found this place after an uber driver dropped me off in the wrong place. Phoned ahead to make the booking. Easy and helpful staff on the phone. Easy check in , free shuttle to LAX. My room over looked the runway!Comfy bed shower over bath  nice simple room decor. Great bar and pool area just next door. Will certainly stay here again. Not expensive at all and nicer than some of the big chain hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r584838207-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>584838207</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Needs work/overpriced</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times because of location but I honestly keep forgetting why.  The pool is tiny, the rooms are super loud and need work and parking is expensive. This time our shower was falling apart. Its conveniently located for layovers but other than that, there's many better hotels for a the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I have stayed here a few times because of location but I honestly keep forgetting why.  The pool is tiny, the rooms are super loud and need work and parking is expensive. This time our shower was falling apart. Its conveniently located for layovers but other than that, there's many better hotels for a the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r583765988-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583765988</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uh-no.  </t>
+  </si>
+  <si>
+    <t>I needed a place to stay on a layover at LAX.  This hotel offered a shuttle to the airport and the online pics made it seem kind of hip and trendy.  The shuttle driver picked us up and was nice.  The lobby looked kind of cool.  We entered a hotel that looked like it had been on HGTV’s design on a dime.  Could have been cool but corners were cut. My kids asked if their was a mattress on the bed or just box springs because the mattresses were so firm. The beds are full size not queen sized beds.  I’m pretty sure I have a contact high from the marijuana smell coming down the hall on my floor.  So we then went to the pool.  My kids had fun in the heated pool and my husband and I enjoyed a few poolside drinks.  The bartender was great.  Drinks were pricey but generally a cool environment.   This hotel is in a good walkable location and honestly aside from some aesthetic problems I wasn’t expecting. We had no major issues.   I’d stay at another airport hotel next time though. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I needed a place to stay on a layover at LAX.  This hotel offered a shuttle to the airport and the online pics made it seem kind of hip and trendy.  The shuttle driver picked us up and was nice.  The lobby looked kind of cool.  We entered a hotel that looked like it had been on HGTV’s design on a dime.  Could have been cool but corners were cut. My kids asked if their was a mattress on the bed or just box springs because the mattresses were so firm. The beds are full size not queen sized beds.  I’m pretty sure I have a contact high from the marijuana smell coming down the hall on my floor.  So we then went to the pool.  My kids had fun in the heated pool and my husband and I enjoyed a few poolside drinks.  The bartender was great.  Drinks were pricey but generally a cool environment.   This hotel is in a good walkable location and honestly aside from some aesthetic problems I wasn’t expecting. We had no major issues.   I’d stay at another airport hotel next time though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r581634799-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581634799</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Serves the purpose, but tireder than it was</t>
+  </si>
+  <si>
+    <t>The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good....The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good. But on the way back I got a quick solo ride outside of the advertised times, and assiduous help with luggage.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good....The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good. But on the way back I got a quick solo ride outside of the advertised times, and assiduous help with luggage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r581099154-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581099154</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Bates motel vibe</t>
+  </si>
+  <si>
+    <t>Close to airport and the shuttle driver was nice are only ups. Unless you are saving considerably I would avoid . Its just run down and creepy as hell. It really felt like Bates motel. The matress is so hard also . This place was very filthy I felt like I got bites on me. The shower was modern .. I would never stay again MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Close to airport and the shuttle driver was nice are only ups. Unless you are saving considerably I would avoid . Its just run down and creepy as hell. It really felt like Bates motel. The matress is so hard also . This place was very filthy I felt like I got bites on me. The shower was modern .. I would never stay again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r580557803-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>580557803</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Worst experience I had so far</t>
+  </si>
+  <si>
+    <t>I booked and pre-paid this hotel in order to have a rest before my connecting flight to China, but as soon as I arrived to the counter around 1am  they told me they were no rooms available, and that I had to wait until 4am, when my flight is 7am. The person at the counter didnt even bother to find a solution, practically his response was to wait in the couch. I´ve traveled a lot around US, first time I´ve experience this lack of customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked and pre-paid this hotel in order to have a rest before my connecting flight to China, but as soon as I arrived to the counter around 1am  they told me they were no rooms available, and that I had to wait until 4am, when my flight is 7am. The person at the counter didnt even bother to find a solution, practically his response was to wait in the couch. I´ve traveled a lot around US, first time I´ve experience this lack of customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r577575742-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577575742</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Stay somewhere else.</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in and only gave it one star because it didn’t accept a score of zero. I have a terrible migraine because my room smelled like someone had just smoked three packs of cigarettes. This must be the employee break room. My family arrived so late in the evening and we where all too tired to demand a room change. Seriously the towels, sheets and pillows are just too smelly from cigarettes. We had to have the window open and that doesn’t prove for a restful sleep when LAX is right next door. The bathroom door does not close and there is no lock. There is no door on the ‘second’ bedroom which really is just a lumpy mattress on the floor. There is however a door with a lock on the other bedroom. However this is a key card hotel door lock which can not be opened with the main door key card so if it closes tough luck. We had to keep it open all night. What is the point of having two room. The light in th front entrance doesn’t have a switch to turn it off so glared in our eyes all night long.  We received only two breakfast vouchers despite having four people. Please do yourself a favor and save a migraine stay onywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in and only gave it one star because it didn’t accept a score of zero. I have a terrible migraine because my room smelled like someone had just smoked three packs of cigarettes. This must be the employee break room. My family arrived so late in the evening and we where all too tired to demand a room change. Seriously the towels, sheets and pillows are just too smelly from cigarettes. We had to have the window open and that doesn’t prove for a restful sleep when LAX is right next door. The bathroom door does not close and there is no lock. There is no door on the ‘second’ bedroom which really is just a lumpy mattress on the floor. There is however a door with a lock on the other bedroom. However this is a key card hotel door lock which can not be opened with the main door key card so if it closes tough luck. We had to keep it open all night. What is the point of having two room. The light in th front entrance doesn’t have a switch to turn it off so glared in our eyes all night long.  We received only two breakfast vouchers despite having four people. Please do yourself a favor and save a migraine stay onywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r577496195-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577496195</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Custom Hotel = Sub-Par Stay</t>
+  </si>
+  <si>
+    <t>Not a good hotel from a value, quality, and service standpoint. The room (Queen Deluxe) was very low quality for the prices. Despite the room being spacious, it did not feel comfortable, had poor decoration, and echoed inside. The bathroom was small and had wear and tear with the sink and tub.There are two reasons why you should avoid this hotel: the bed was completely worn out and the towels were not clean--having stains on them. The bed is ultra cheap and the springs are worn out. It's very uncomfortable and cheaply made. One of the towels I was given had a large, brown stain on it. Not sure what it was but that's unacceptable. Some of the other towels looked worn.There are plenty of other hotel options nearby for the same price that offer a higher quality. I recommend visiting those before the Custom Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Not a good hotel from a value, quality, and service standpoint. The room (Queen Deluxe) was very low quality for the prices. Despite the room being spacious, it did not feel comfortable, had poor decoration, and echoed inside. The bathroom was small and had wear and tear with the sink and tub.There are two reasons why you should avoid this hotel: the bed was completely worn out and the towels were not clean--having stains on them. The bed is ultra cheap and the springs are worn out. It's very uncomfortable and cheaply made. One of the towels I was given had a large, brown stain on it. Not sure what it was but that's unacceptable. Some of the other towels looked worn.There are plenty of other hotel options nearby for the same price that offer a higher quality. I recommend visiting those before the Custom Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r576549104-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576549104</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel I have visited</t>
+  </si>
+  <si>
+    <t>I was stranded in Los Angeles after 2 flight cancellations. I was able to get a reservation at this supposed “4 Star” hotel. There was no coffee or food available after midnight. The room was small and very old. Every wall was painted dark gray in a very poor paint job. Carpet in room and gray hallway was old and faded and looked as though it hadn’t been replaced or even cleaned in the 10+ years (according to the shuttle driver) since ithe hotel had assumed this identity.  There was no closet in the room, lots of noise all night from other rooms, (makes one wonder what was happening with all the coming-and- goings all night) a very uncomfortable bed, and flashing lights around the window - I was told these were “decorations”. The bathroom was old and small with no amenities in sight except a few tiny wrapped bars of soap. 
+The door and lock were commercial grade. Apparently only one of the 3 elevators was operational. The shuttle to the airport, which operated only on their schedule, had no baggage area and the driver kept switching bags and stacking them on available seats - of which there were very few. The driver had such loud music in the van that I was unable to talk on the phone to try to salvage what was left of my trip.  
+A totally horrible experience for which they had the nerve...I was stranded in Los Angeles after 2 flight cancellations. I was able to get a reservation at this supposed “4 Star” hotel. There was no coffee or food available after midnight. The room was small and very old. Every wall was painted dark gray in a very poor paint job. Carpet in room and gray hallway was old and faded and looked as though it hadn’t been replaced or even cleaned in the 10+ years (according to the shuttle driver) since ithe hotel had assumed this identity.  There was no closet in the room, lots of noise all night from other rooms, (makes one wonder what was happening with all the coming-and- goings all night) a very uncomfortable bed, and flashing lights around the window - I was told these were “decorations”. The bathroom was old and small with no amenities in sight except a few tiny wrapped bars of soap. The door and lock were commercial grade. Apparently only one of the 3 elevators was operational. The shuttle to the airport, which operated only on their schedule, had no baggage area and the driver kept switching bags and stacking them on available seats - of which there were very few. The driver had such loud music in the van that I was unable to talk on the phone to try to salvage what was left of my trip.  A totally horrible experience for which they had the nerve to charge more than $200 !!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I was stranded in Los Angeles after 2 flight cancellations. I was able to get a reservation at this supposed “4 Star” hotel. There was no coffee or food available after midnight. The room was small and very old. Every wall was painted dark gray in a very poor paint job. Carpet in room and gray hallway was old and faded and looked as though it hadn’t been replaced or even cleaned in the 10+ years (according to the shuttle driver) since ithe hotel had assumed this identity.  There was no closet in the room, lots of noise all night from other rooms, (makes one wonder what was happening with all the coming-and- goings all night) a very uncomfortable bed, and flashing lights around the window - I was told these were “decorations”. The bathroom was old and small with no amenities in sight except a few tiny wrapped bars of soap. 
+The door and lock were commercial grade. Apparently only one of the 3 elevators was operational. The shuttle to the airport, which operated only on their schedule, had no baggage area and the driver kept switching bags and stacking them on available seats - of which there were very few. The driver had such loud music in the van that I was unable to talk on the phone to try to salvage what was left of my trip.  
+A totally horrible experience for which they had the nerve...I was stranded in Los Angeles after 2 flight cancellations. I was able to get a reservation at this supposed “4 Star” hotel. There was no coffee or food available after midnight. The room was small and very old. Every wall was painted dark gray in a very poor paint job. Carpet in room and gray hallway was old and faded and looked as though it hadn’t been replaced or even cleaned in the 10+ years (according to the shuttle driver) since ithe hotel had assumed this identity.  There was no closet in the room, lots of noise all night from other rooms, (makes one wonder what was happening with all the coming-and- goings all night) a very uncomfortable bed, and flashing lights around the window - I was told these were “decorations”. The bathroom was old and small with no amenities in sight except a few tiny wrapped bars of soap. The door and lock were commercial grade. Apparently only one of the 3 elevators was operational. The shuttle to the airport, which operated only on their schedule, had no baggage area and the driver kept switching bags and stacking them on available seats - of which there were very few. The driver had such loud music in the van that I was unable to talk on the phone to try to salvage what was left of my trip.  A totally horrible experience for which they had the nerve to charge more than $200 !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r574385144-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574385144</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Incredibly uncomfortable hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night because it was close to the airport and a friend we were visiting. Valet is $36.00 a night and there is not anywhere close to park otherwise. Check in went smoothly, although friendliness and a smile were surely not included. The room- here is the terrible part- sparse would be understatement. The bed is a platform bed about 12 inches from the floor. The bed is attached to a desk and the whole thing creaks if you just try to turn over. Impossible to get any sleep at all.  Two chairs are the same, low to the floor with no table near them. Impossible to get in or out of them easily.  Switch to turn on the floor lamp was laying on the floor next to the lamp. Dim lighting and add the fact that the light by the bar area did not work. The lights in the bathroom were yellowed and dim too. We were so uncomfortable that we left the hotel about 5 am. Just could not take it anymore. Same blah check out. Never ever again,.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Stayed one night because it was close to the airport and a friend we were visiting. Valet is $36.00 a night and there is not anywhere close to park otherwise. Check in went smoothly, although friendliness and a smile were surely not included. The room- here is the terrible part- sparse would be understatement. The bed is a platform bed about 12 inches from the floor. The bed is attached to a desk and the whole thing creaks if you just try to turn over. Impossible to get any sleep at all.  Two chairs are the same, low to the floor with no table near them. Impossible to get in or out of them easily.  Switch to turn on the floor lamp was laying on the floor next to the lamp. Dim lighting and add the fact that the light by the bar area did not work. The lights in the bathroom were yellowed and dim too. We were so uncomfortable that we left the hotel about 5 am. Just could not take it anymore. Same blah check out. Never ever again,.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r574385028-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>574385028</t>
+  </si>
+  <si>
+    <t>Clean and affordable</t>
+  </si>
+  <si>
+    <t>It is a room suited for a 1 or 2 night stop over. Its affordable and close to LAX. Free shuttle that runs regularly and on a main road so plenty of restaurants nearby. And a dispensary to. You get what you pay for. It's clean and staff are friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is a room suited for a 1 or 2 night stop over. Its affordable and close to LAX. Free shuttle that runs regularly and on a main road so plenty of restaurants nearby. And a dispensary to. You get what you pay for. It's clean and staff are friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r573838586-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>573838586</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever!</t>
+  </si>
+  <si>
+    <t>We check in on April 16 2018, to find there is not a desk in the room, we are on our knees with the computer on the bed. NO PARKING unless you pay for valet park and the nearest parking is more than a block . Needless to say wil NEVER stay here again! Might be fine if your 20 but we are in our 60’s.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>We check in on April 16 2018, to find there is not a desk in the room, we are on our knees with the computer on the bed. NO PARKING unless you pay for valet park and the nearest parking is more than a block . Needless to say wil NEVER stay here again! Might be fine if your 20 but we are in our 60’s.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r572785910-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>572785910</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>A Good Youth Hostel</t>
+  </si>
+  <si>
+    <t>Booked on Priceline Express deal where the hotel isn't revealed until after the transaction is submitted.  This was a mistake on my part.  Even though it was very economical, this is not a 3.5 star hotel.I reserved a Premium room with a king sized bed.  The reality was a queen size bed that was placed on a simple Ikea type frame.  It is reminiscent to a bed in Mumbai or Bejing.  Hard and nasty.  I would have liked a complementary water in the room, but the cheap and cheerful $.0.25 bulk bottle water was $3,00 fro the 16 oz bottle. Fiji water perhaps but Nestle's?  Lots of noise from the airport runway and planes taking off and landing. Hate ot be so negative but this hotel is akin to an AirBnB or youth hostel.  Cheap and chearful except it wasn't that cheap. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Booked on Priceline Express deal where the hotel isn't revealed until after the transaction is submitted.  This was a mistake on my part.  Even though it was very economical, this is not a 3.5 star hotel.I reserved a Premium room with a king sized bed.  The reality was a queen size bed that was placed on a simple Ikea type frame.  It is reminiscent to a bed in Mumbai or Bejing.  Hard and nasty.  I would have liked a complementary water in the room, but the cheap and cheerful $.0.25 bulk bottle water was $3,00 fro the 16 oz bottle. Fiji water perhaps but Nestle's?  Lots of noise from the airport runway and planes taking off and landing. Hate ot be so negative but this hotel is akin to an AirBnB or youth hostel.  Cheap and chearful except it wasn't that cheap. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r572556307-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>572556307</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Outdated, poorly maintained airport hotel</t>
+  </si>
+  <si>
+    <t>BASICS: I travelled as a solo woman in the first week of April. I did not expect much from this hotel. I splurged on a hotel near Palm Springs the weekend prior so I chose the CUSTOM for it's affordability and its proximity to LAX as I had an early flight the next morning. I did not intend on spending much time in the hotel other than to sleep. 
+For the record, I stayed at the Custom in April of 2013 and it actually felt like a nice budget boutique hotel back then. All reviews prior to 2017 have been removed from TripAdvisor, so I don't know what happened there. I left a positive 4-star review back then because the place was nice and it was worth the money we paid at the time. 
+The only reason this place is getting 2-stars is because it served its purpose as a "cheap" place to stay the night before a flight. I paid US$87 before taxes. Of course, after factoring in valet parking costs (US$35), it's not that cheap anymore, but it comes with the territory of accommodations in LA.
+PROS:
+- Only pros are its price and location. 
+- The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all...BASICS: I travelled as a solo woman in the first week of April. I did not expect much from this hotel. I splurged on a hotel near Palm Springs the weekend prior so I chose the CUSTOM for it's affordability and its proximity to LAX as I had an early flight the next morning. I did not intend on spending much time in the hotel other than to sleep. For the record, I stayed at the Custom in April of 2013 and it actually felt like a nice budget boutique hotel back then. All reviews prior to 2017 have been removed from TripAdvisor, so I don't know what happened there. I left a positive 4-star review back then because the place was nice and it was worth the money we paid at the time. The only reason this place is getting 2-stars is because it served its purpose as a "cheap" place to stay the night before a flight. I paid US$87 before taxes. Of course, after factoring in valet parking costs (US$35), it's not that cheap anymore, but it comes with the territory of accommodations in LA.PROS:- Only pros are its price and location. - The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all day.CONS:- The rooms are basic and simple. They're also incredibly run down. It doesn't look like anyone has done any maintenance since 2013. The rooms used to feel swanky and boutique-y, there were lots of amenities and color on the walls and furniture. Now, it's white and spartan and feels incredibly cold. Whatever touch-ups were made, they were the bare minimum. Whoever re-painted, it looks like they didn't use tape, the paint lines are just all over the place. There's a low bed in the middle of the room and a small table next to it. The iPod machine is ancient using the old 30-pin ports. - Poor lighting in the rooms and bathrooms. The bathroom feels like a dorm bathroom. The overhead light flickered constantly.- What's the point of a view if the windows are so dirty that you can't see anything? I don't think the windows have been cleaned since I last stayed here.- The black-out blinds are super old. They're dirty and have stains and holes all over them.- The lighter curtains that go over the blinds are so yellow and gross feeling, almost like they're sticky. I had to crawl behind them to reach the pulley for the blinds and the feeling of the curtain material against my skin made me feel dirty. - Showers are awful. (Funnily enough, the only complaint I had in 2013 was the shower. No hot water and very low water pressure back then). The tub didn't drain and the showerhead leaked the entire night. Not a drip-drip-drip but like a constant but inconsistent stream. The knobs were also inconsistent. They're not labeled with directionality so I just guessed in which direction they had to be turned. When I went to turn the shower off, I gambled and turned the hot knob the wrong way and cold water just poured all over me. - Elevators smelled like a public bathroom. You know that odor in a restroom, that stale urine + overuse of air freshener + acerbic cleaning product smell? Yeah, that, and it wafted down the hallways too.- Unfriendly front desk staff, both the night I checked in and the morning I checked out. As someone previously mentioned, they each say about 5 words total to you: "Hi. Room #. Password for wifi. Bye."TIPS:- This place is sooo far from what it used to be and could've been. It just felt so old and sad, like an abandoned hostel in a B horror movie. Stay elsewhere. Go to the Marriott or Sheridan. About $10-$20 more but parking is free so it all works out. Better dining options too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>BASICS: I travelled as a solo woman in the first week of April. I did not expect much from this hotel. I splurged on a hotel near Palm Springs the weekend prior so I chose the CUSTOM for it's affordability and its proximity to LAX as I had an early flight the next morning. I did not intend on spending much time in the hotel other than to sleep. 
+For the record, I stayed at the Custom in April of 2013 and it actually felt like a nice budget boutique hotel back then. All reviews prior to 2017 have been removed from TripAdvisor, so I don't know what happened there. I left a positive 4-star review back then because the place was nice and it was worth the money we paid at the time. 
+The only reason this place is getting 2-stars is because it served its purpose as a "cheap" place to stay the night before a flight. I paid US$87 before taxes. Of course, after factoring in valet parking costs (US$35), it's not that cheap anymore, but it comes with the territory of accommodations in LA.
+PROS:
+- Only pros are its price and location. 
+- The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all...BASICS: I travelled as a solo woman in the first week of April. I did not expect much from this hotel. I splurged on a hotel near Palm Springs the weekend prior so I chose the CUSTOM for it's affordability and its proximity to LAX as I had an early flight the next morning. I did not intend on spending much time in the hotel other than to sleep. For the record, I stayed at the Custom in April of 2013 and it actually felt like a nice budget boutique hotel back then. All reviews prior to 2017 have been removed from TripAdvisor, so I don't know what happened there. I left a positive 4-star review back then because the place was nice and it was worth the money we paid at the time. The only reason this place is getting 2-stars is because it served its purpose as a "cheap" place to stay the night before a flight. I paid US$87 before taxes. Of course, after factoring in valet parking costs (US$35), it's not that cheap anymore, but it comes with the territory of accommodations in LA.PROS:- Only pros are its price and location. - The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all day.CONS:- The rooms are basic and simple. They're also incredibly run down. It doesn't look like anyone has done any maintenance since 2013. The rooms used to feel swanky and boutique-y, there were lots of amenities and color on the walls and furniture. Now, it's white and spartan and feels incredibly cold. Whatever touch-ups were made, they were the bare minimum. Whoever re-painted, it looks like they didn't use tape, the paint lines are just all over the place. There's a low bed in the middle of the room and a small table next to it. The iPod machine is ancient using the old 30-pin ports. - Poor lighting in the rooms and bathrooms. The bathroom feels like a dorm bathroom. The overhead light flickered constantly.- What's the point of a view if the windows are so dirty that you can't see anything? I don't think the windows have been cleaned since I last stayed here.- The black-out blinds are super old. They're dirty and have stains and holes all over them.- The lighter curtains that go over the blinds are so yellow and gross feeling, almost like they're sticky. I had to crawl behind them to reach the pulley for the blinds and the feeling of the curtain material against my skin made me feel dirty. - Showers are awful. (Funnily enough, the only complaint I had in 2013 was the shower. No hot water and very low water pressure back then). The tub didn't drain and the showerhead leaked the entire night. Not a drip-drip-drip but like a constant but inconsistent stream. The knobs were also inconsistent. They're not labeled with directionality so I just guessed in which direction they had to be turned. When I went to turn the shower off, I gambled and turned the hot knob the wrong way and cold water just poured all over me. - Elevators smelled like a public bathroom. You know that odor in a restroom, that stale urine + overuse of air freshener + acerbic cleaning product smell? Yeah, that, and it wafted down the hallways too.- Unfriendly front desk staff, both the night I checked in and the morning I checked out. As someone previously mentioned, they each say about 5 words total to you: "Hi. Room #. Password for wifi. Bye."TIPS:- This place is sooo far from what it used to be and could've been. It just felt so old and sad, like an abandoned hostel in a B horror movie. Stay elsewhere. Go to the Marriott or Sheridan. About $10-$20 more but parking is free so it all works out. Better dining options too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r571782860-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571782860</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Awful Hotel</t>
+  </si>
+  <si>
+    <t>The staff are very professional and courteous. But it appears that they are not investing in maintaining the hotel. We stayed in a 2 bedroom, well not really. Read the description; "separated by a foyer". What they are calling one of the bedrooms, should be a living area, there is none. But in the "foyer" there is a light and there is no door on that "2nd bedroom" so the light stays on all night. I called the front desk and even spoke to the supervisor, they said nothing they could do. - Really? So my husband, unscrewed the bulb. The first room we had reeked of smoke. They moved us. The whole time we were there the halls and elevators smelled of marijuana. The bathroom doors are swinging doors, so they don't close. Again, really? Now, I'll also say it is not expensive. Below, one of the questions is about serving breakfast, yes, they do, but for a charge.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>The staff are very professional and courteous. But it appears that they are not investing in maintaining the hotel. We stayed in a 2 bedroom, well not really. Read the description; "separated by a foyer". What they are calling one of the bedrooms, should be a living area, there is none. But in the "foyer" there is a light and there is no door on that "2nd bedroom" so the light stays on all night. I called the front desk and even spoke to the supervisor, they said nothing they could do. - Really? So my husband, unscrewed the bulb. The first room we had reeked of smoke. They moved us. The whole time we were there the halls and elevators smelled of marijuana. The bathroom doors are swinging doors, so they don't close. Again, really? Now, I'll also say it is not expensive. Below, one of the questions is about serving breakfast, yes, they do, but for a charge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r568315287-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568315287</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>On our we to Las Vegas our plane got delayed airlines had to get us a hotel we stay at the customs hotel it was a really nice hotel the employees are very nice enjoyed the little time I was there.... thank you to the valet manger lupeMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>On our we to Las Vegas our plane got delayed airlines had to get us a hotel we stay at the customs hotel it was a really nice hotel the employees are very nice enjoyed the little time I was there.... thank you to the valet manger lupeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r566764081-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566764081</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Add $35 for parking</t>
+  </si>
+  <si>
+    <t>Huge add on in my opinion, do not consider parking on the street, must pay the extra 35 for valet parking. The staff very friendly, hotel in good location, room was clean, good linens, non working ac, stays only one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Huge add on in my opinion, do not consider parking on the street, must pay the extra 35 for valet parking. The staff very friendly, hotel in good location, room was clean, good linens, non working ac, stays only one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r566452559-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566452559</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Best Ever Unexpected Couple Nights In LA</t>
+  </si>
+  <si>
+    <t>Had to find a place to stay for couple of nights -totally unexpected layover in LA and bam! Custom Hotel was it! On check-in staff far exceeded customer service and personality plus with a smile! Exhausted, we went up to the room- so impressed for the price -huge room clean, modern -and I'm fussy about cleanliness! Went down to the restaurant which overlooked the pool and cabanas - quite a nice ambiance -fabulous food and great wine list! It wasn't  too far in  a taxi from LAX, but  re  sightseeing you just have to organise shuttles etc. There's  such a safe and easy going vibe round there, next door to hotel was a grocery store that had everything you need and round corner best frozen yoghurt place!  It was just the right place for our  break and rest before heading back home! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Had to find a place to stay for couple of nights -totally unexpected layover in LA and bam! Custom Hotel was it! On check-in staff far exceeded customer service and personality plus with a smile! Exhausted, we went up to the room- so impressed for the price -huge room clean, modern -and I'm fussy about cleanliness! Went down to the restaurant which overlooked the pool and cabanas - quite a nice ambiance -fabulous food and great wine list! It wasn't  too far in  a taxi from LAX, but  re  sightseeing you just have to organise shuttles etc. There's  such a safe and easy going vibe round there, next door to hotel was a grocery store that had everything you need and round corner best frozen yoghurt place!  It was just the right place for our  break and rest before heading back home! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r565357148-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>565357148</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Not a nice hotel</t>
+  </si>
+  <si>
+    <t>We were bumped from another hotel that we had a reservation at that was overbooked and our travel agent moved us to this hotel due to all the hotels in the area being full.  Let me start by giving the positives... the staff were really great.  The gentleman at the front desk was super nice when we checked in.  The valet was very nice and quick.  However, that is where the positives end and the negatives begin.  The hallways are painted a very dark color (almost black).  Parts of room were painted this same dark color.  It feels like you are in a prison.  
+The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was...We were bumped from another hotel that we had a reservation at that was overbooked and our travel agent moved us to this hotel due to all the hotels in the area being full.  Let me start by giving the positives... the staff were really great.  The gentleman at the front desk was super nice when we checked in.  The valet was very nice and quick.  However, that is where the positives end and the negatives begin.  The hallways are painted a very dark color (almost black).  Parts of room were painted this same dark color.  It feels like you are in a prison.  The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was already after midnight when we arrived and we were desperate for some sleep before our early morning flight.  My wife commented that she would never have stayed there if I hadn't been there. The room also had outlets at weird places and weird heights (like 4 foot up the wall).  Maybe there had been a table there at one point.Stay away!  Even though the staff we encountered were great, the hotel needs major investment and a strong non-smoking policy that is enforced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2018</t>
+  </si>
+  <si>
+    <t>We were bumped from another hotel that we had a reservation at that was overbooked and our travel agent moved us to this hotel due to all the hotels in the area being full.  Let me start by giving the positives... the staff were really great.  The gentleman at the front desk was super nice when we checked in.  The valet was very nice and quick.  However, that is where the positives end and the negatives begin.  The hallways are painted a very dark color (almost black).  Parts of room were painted this same dark color.  It feels like you are in a prison.  
+The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was...We were bumped from another hotel that we had a reservation at that was overbooked and our travel agent moved us to this hotel due to all the hotels in the area being full.  Let me start by giving the positives... the staff were really great.  The gentleman at the front desk was super nice when we checked in.  The valet was very nice and quick.  However, that is where the positives end and the negatives begin.  The hallways are painted a very dark color (almost black).  Parts of room were painted this same dark color.  It feels like you are in a prison.  The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was already after midnight when we arrived and we were desperate for some sleep before our early morning flight.  My wife commented that she would never have stayed there if I hadn't been there. The room also had outlets at weird places and weird heights (like 4 foot up the wall).  Maybe there had been a table there at one point.Stay away!  Even though the staff we encountered were great, the hotel needs major investment and a strong non-smoking policy that is enforced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r564740986-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>564740986</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Great deal for one night near LAX</t>
+  </si>
+  <si>
+    <t>Was attending a conference in Long Beach in December and had an early morning flight out of LAX.  The decision to move to the Custom Hotel for one night before the flight was a great one.  First, I got a very cheap Lyft fare from Long Beach to the Custom because I traveled outside of peak hours.  Second, I slept well at the Custom and was totally ready for my flight.  The staff are friendly, and there is a great taqueria nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2018</t>
+  </si>
+  <si>
+    <t>Was attending a conference in Long Beach in December and had an early morning flight out of LAX.  The decision to move to the Custom Hotel for one night before the flight was a great one.  First, I got a very cheap Lyft fare from Long Beach to the Custom because I traveled outside of peak hours.  Second, I slept well at the Custom and was totally ready for my flight.  The staff are friendly, and there is a great taqueria nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r563721333-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>563721333</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Old Building with Non Retro Paint Job</t>
+  </si>
+  <si>
+    <t>I stayed here one night while waiting to fly out the next day from LAX.  Overall this hotel did not impress.  I would give it a slightly above average rating.  From the website photos, you would think it is this retro cool place.  No.  It is retro old.  It is an old building with a paint job.  Well, the paint on my floor was a dark grey.  It was depressing.  They need to go out and hire whoever does the decor for Aloft.  Now that hotel is retro cool.I did not like that they only had valet parking.  No self parking.  Does it look like I am Daddy Warbucks and made of money?  I am a middle class traveler on a budget.I like that the airport shuttle was free.  But it only runs once every 45 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here one night while waiting to fly out the next day from LAX.  Overall this hotel did not impress.  I would give it a slightly above average rating.  From the website photos, you would think it is this retro cool place.  No.  It is retro old.  It is an old building with a paint job.  Well, the paint on my floor was a dark grey.  It was depressing.  They need to go out and hire whoever does the decor for Aloft.  Now that hotel is retro cool.I did not like that they only had valet parking.  No self parking.  Does it look like I am Daddy Warbucks and made of money?  I am a middle class traveler on a budget.I like that the airport shuttle was free.  But it only runs once every 45 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r562836505-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562836505</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>EXCELLENT LOCATION,,  FRIENDLY STAFF</t>
+  </si>
+  <si>
+    <t>. Arrived there late in the evening, . Our request for a nice room on upper floor was gladly complied with. In spite of a busy evening Sam at the reception  was very nice, courteous and accomodating.The location is excellent, close to the airport but without the noise of  jet engines. Probably one of the best hotels near LAX airport.Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>. Arrived there late in the evening, . Our request for a nice room on upper floor was gladly complied with. In spite of a busy evening Sam at the reception  was very nice, courteous and accomodating.The location is excellent, close to the airport but without the noise of  jet engines. Probably one of the best hotels near LAX airport.Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r561676079-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561676079</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Comfortable...BUT</t>
+  </si>
+  <si>
+    <t>I stayed here for a about a week in January. I liked the location of the hotel, it's walking distance to a few restaurants and grocery stores. The room itself was adequate, the bathroom was small and a bit dated, and the bed was comfortable. I had issues with adjusting the temperature, it just felt extremely cold even when I adjusted the heat setting. Parking is valet only, I had different experiences each day, my car was parked outside and some of the valet will wipe down my windows before I drove off. And on other days they just gave me the car without wiping down the windows. I also had key issues. I had to constantly go downstairs to get a new key when i came back everyday. Some of the front desk people apologized, but some of them didn't offer an apology even when I had my hands full and had expressed frustration due to the constant key issues. I had spoken to another guest and she had told me she had the same key issues. Overall, it was an okay stay, nothing spectacular.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for a about a week in January. I liked the location of the hotel, it's walking distance to a few restaurants and grocery stores. The room itself was adequate, the bathroom was small and a bit dated, and the bed was comfortable. I had issues with adjusting the temperature, it just felt extremely cold even when I adjusted the heat setting. Parking is valet only, I had different experiences each day, my car was parked outside and some of the valet will wipe down my windows before I drove off. And on other days they just gave me the car without wiping down the windows. I also had key issues. I had to constantly go downstairs to get a new key when i came back everyday. Some of the front desk people apologized, but some of them didn't offer an apology even when I had my hands full and had expressed frustration due to the constant key issues. I had spoken to another guest and she had told me she had the same key issues. Overall, it was an okay stay, nothing spectacular.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r560538176-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>560538176</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most recent stay at the Custom LA </t>
+  </si>
+  <si>
+    <t>This hotel never disappoints. My last stay I went over to try the deck 33 restaurant . Great food and drink while overlooking the pool. I Highly recommend adding this stop to your dinner menu. The hotel location is the absolute best, central to all destinations in the area. Each time I stay I notice improvements. Future is looking great for this hotel.  Looking forward to my trip back MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>This hotel never disappoints. My last stay I went over to try the deck 33 restaurant . Great food and drink while overlooking the pool. I Highly recommend adding this stop to your dinner menu. The hotel location is the absolute best, central to all destinations in the area. Each time I stay I notice improvements. Future is looking great for this hotel.  Looking forward to my trip back More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r557509035-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>557509035</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>"Friendly front desk staff "</t>
+  </si>
+  <si>
+    <t>I stayed here as my wife found found your hotel over the internet , it looked like a great hotel as per description formulated, like a hotel from the sixties an old "Motel " style , decor etc etc .
+I waited at the terminal for 40 minutes , No transfer bus arrived at the designated point , so I took a taxi to your hotel , upon approach to the hotel I really thought the taxi diver was taking me to another hotel , I kept looking out for this sixties style " Motel ", suddenly he pulled up at this 12 story hotel .
+Okay so where is the building as per internet photo ?
+Check in went smoothly , friendly front desk staff .
+I stayed in 1120 - 1121 , as my friend was visiting from San Diego.
+Room basic , smell of cigarettes , dusty and felt unused , 
+Bed comfortable , bathroom clean , amenities perfect , 
+windows filthy , inside and out .
+overall my stay was ok , 
+pool area ok,  water warm , 
+sun beds very uncomfortable one cannot lie flat due to the style of bed .
+late check out went was appreciated .
+thank you , your hotel needs a little TLC to make it more attractive to flying guests.
+"A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet ,...I stayed here as my wife found found your hotel over the internet , it looked like a great hotel as per description formulated, like a hotel from the sixties an old "Motel " style , decor etc etc .I waited at the terminal for 40 minutes , No transfer bus arrived at the designated point , so I took a taxi to your hotel , upon approach to the hotel I really thought the taxi diver was taking me to another hotel , I kept looking out for this sixties style " Motel ", suddenly he pulled up at this 12 story hotel .Okay so where is the building as per internet photo ?Check in went smoothly , friendly front desk staff .I stayed in 1120 - 1121 , as my friend was visiting from San Diego.Room basic , smell of cigarettes , dusty and felt unused , Bed comfortable , bathroom clean , amenities perfect , windows filthy , inside and out .overall my stay was ok , pool area ok,  water warm , sun beds very uncomfortable one cannot lie flat due to the style of bed .late check out went was appreciated .thank you , your hotel needs a little TLC to make it more attractive to flying guests."A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet , or at check in to offer / ask if you would like a non smoking room."MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here as my wife found found your hotel over the internet , it looked like a great hotel as per description formulated, like a hotel from the sixties an old "Motel " style , decor etc etc .
+I waited at the terminal for 40 minutes , No transfer bus arrived at the designated point , so I took a taxi to your hotel , upon approach to the hotel I really thought the taxi diver was taking me to another hotel , I kept looking out for this sixties style " Motel ", suddenly he pulled up at this 12 story hotel .
+Okay so where is the building as per internet photo ?
+Check in went smoothly , friendly front desk staff .
+I stayed in 1120 - 1121 , as my friend was visiting from San Diego.
+Room basic , smell of cigarettes , dusty and felt unused , 
+Bed comfortable , bathroom clean , amenities perfect , 
+windows filthy , inside and out .
+overall my stay was ok , 
+pool area ok,  water warm , 
+sun beds very uncomfortable one cannot lie flat due to the style of bed .
+late check out went was appreciated .
+thank you , your hotel needs a little TLC to make it more attractive to flying guests.
+"A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet ,...I stayed here as my wife found found your hotel over the internet , it looked like a great hotel as per description formulated, like a hotel from the sixties an old "Motel " style , decor etc etc .I waited at the terminal for 40 minutes , No transfer bus arrived at the designated point , so I took a taxi to your hotel , upon approach to the hotel I really thought the taxi diver was taking me to another hotel , I kept looking out for this sixties style " Motel ", suddenly he pulled up at this 12 story hotel .Okay so where is the building as per internet photo ?Check in went smoothly , friendly front desk staff .I stayed in 1120 - 1121 , as my friend was visiting from San Diego.Room basic , smell of cigarettes , dusty and felt unused , Bed comfortable , bathroom clean , amenities perfect , windows filthy , inside and out .overall my stay was ok , pool area ok,  water warm , sun beds very uncomfortable one cannot lie flat due to the style of bed .late check out went was appreciated .thank you , your hotel needs a little TLC to make it more attractive to flying guests."A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet , or at check in to offer / ask if you would like a non smoking room."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r556048097-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>556048097</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam at the front desk was extremely professional </t>
+  </si>
+  <si>
+    <t>I decided last minute to stay here prior to my flight out of LAX. I have stayed at multiple hotels while on vacation and this is the first hotel where I felt very welcomed by the check in. The gentlemen Sam at the front desk did not rush me. I appreciated the service and professionalism that was provided. I would recommend this hotel any day due to the courtesy and kindness THANK YOU SAM!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>I decided last minute to stay here prior to my flight out of LAX. I have stayed at multiple hotels while on vacation and this is the first hotel where I felt very welcomed by the check in. The gentlemen Sam at the front desk did not rush me. I appreciated the service and professionalism that was provided. I would recommend this hotel any day due to the courtesy and kindness THANK YOU SAM!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r553867879-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553867879</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>A good value hotel, and well located</t>
+  </si>
+  <si>
+    <t>I agree with the previous reviewer...this is a good value hotel.  Maybe a bit scruffy around the edges, but clean and excellent and welcoming staff.  A prompt pick up at LAX by the free shuttle (ring them as you exit the terminal) put us into the hotel and a room about 60 minutes after we landed...a record (and well done LAX airport).  Picked a room on the 9th floor...nice and quiet.  We picked the place as its a quick walk to the Belona bird reserve.  Down Lincoln Drive theres a great selection of local restaurants.  We chose the local Italian which was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>I agree with the previous reviewer...this is a good value hotel.  Maybe a bit scruffy around the edges, but clean and excellent and welcoming staff.  A prompt pick up at LAX by the free shuttle (ring them as you exit the terminal) put us into the hotel and a room about 60 minutes after we landed...a record (and well done LAX airport).  Picked a room on the 9th floor...nice and quiet.  We picked the place as its a quick walk to the Belona bird reserve.  Down Lincoln Drive theres a great selection of local restaurants.  We chose the local Italian which was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550716946-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550716946</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>It's Ok</t>
+  </si>
+  <si>
+    <t>Not cheap, needs some refreshing, cleaning and updating. Very noisy. I didn't like the noise so I left a day earlier.  I told the receptionist my concern about the noise,  in the hallway and he seems hardly sorry. Close to the Airport but I don't recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Not cheap, needs some refreshing, cleaning and updating. Very noisy. I didn't like the noise so I left a day earlier.  I told the receptionist my concern about the noise,  in the hallway and he seems hardly sorry. Close to the Airport but I don't recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550707073-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550707073</t>
+  </si>
+  <si>
+    <t>TWO STAR MOTEL WITH BAD SERVICE</t>
+  </si>
+  <si>
+    <t>The hotel is extremely low end, at best comparable to a two star motel or hostel at best, and advertised as a boutique hotel. The hotel and especially the room smells awful, like heavy smokers. The guests are questionable and will cause loud noises until 3AM. The service is non existent and what you'd expect at a two star motel/hostel, not what you'd expect to pay 200 dollars for. It's not even worth 50 dollars. The hotel rooms are not up to standards to any standard hotel with horribly uncomfortable and basic beds that reminds me of hostels and blackout shades that absolutely don't block out light.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is extremely low end, at best comparable to a two star motel or hostel at best, and advertised as a boutique hotel. The hotel and especially the room smells awful, like heavy smokers. The guests are questionable and will cause loud noises until 3AM. The service is non existent and what you'd expect at a two star motel/hostel, not what you'd expect to pay 200 dollars for. It's not even worth 50 dollars. The hotel rooms are not up to standards to any standard hotel with horribly uncomfortable and basic beds that reminds me of hostels and blackout shades that absolutely don't block out light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550446954-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550446954</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layover in lax </t>
+  </si>
+  <si>
+    <t>Close to the airport. Shuttle service is scheduled and fills up quickly.  Taxi service should be your backup.   Bedroom was clean.  Beds and pillows are ok. The beds are very low to the ground.  Once in bed, you don’t notice.  Shower was broken. The air vents in the room were quite dirty.   However, the price was good and it was a short stay for a night time flight layover.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Close to the airport. Shuttle service is scheduled and fills up quickly.  Taxi service should be your backup.   Bedroom was clean.  Beds and pillows are ok. The beds are very low to the ground.  Once in bed, you don’t notice.  Shower was broken. The air vents in the room were quite dirty.   However, the price was good and it was a short stay for a night time flight layover.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r549081499-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>549081499</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Loyalty</t>
+  </si>
+  <si>
+    <t>Thanks for the service from the workman Sem S. He was very loyal and tried to understand and help. I do not speak English. And it was difficult for me to explain what I needed. He was not angry. And with love helpedMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, Front Office Manager at Custom Hotel, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Thanks for the service from the workman Sem S. He was very loyal and tried to understand and help. I do not speak English. And it was difficult for me to explain what I needed. He was not angry. And with love helpedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r548763806-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>548763806</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I was referred to Custom Hotel by my Sister Breann, after asking her what were some nice hotels she could recommend near LAX. My friend and I received excellent service; Ms. J was very pleasant in helping us with our breakfast, Mr. Hugo was exceptional in his service to us as well, and Mrs. Breann ensured that we had a great stay. Service was so great my friend and I extended our check out time and we considered staying another night! Oh! The valet guys were soooo very nice and helpful, I haven't experienced valet service like that in a while.The Hotel is in a nice location and gives great views of L.A. Thanks for a great stay.~ShavonMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>I was referred to Custom Hotel by my Sister Breann, after asking her what were some nice hotels she could recommend near LAX. My friend and I received excellent service; Ms. J was very pleasant in helping us with our breakfast, Mr. Hugo was exceptional in his service to us as well, and Mrs. Breann ensured that we had a great stay. Service was so great my friend and I extended our check out time and we considered staying another night! Oh! The valet guys were soooo very nice and helpful, I haven't experienced valet service like that in a while.The Hotel is in a nice location and gives great views of L.A. Thanks for a great stay.~ShavonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r547089346-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547089346</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Unique, Boutique, Location</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Boutique properties. This was is the only one I could locate this close to LAX. It is most certainly an converted office building. I was impressed with the use of space. The attention to detail. The quiet of the rooms. I wasn't here long enough to check our or enjoy the amenities but I would certainly choose this property again if I find myself in the area. Customer service was on par with this level or hospitality. Thanks for being a great choice in an over crowded market.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Boutique properties. This was is the only one I could locate this close to LAX. It is most certainly an converted office building. I was impressed with the use of space. The attention to detail. The quiet of the rooms. I wasn't here long enough to check our or enjoy the amenities but I would certainly choose this property again if I find myself in the area. Customer service was on par with this level or hospitality. Thanks for being a great choice in an over crowded market.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r542536274-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542536274</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Customer Service !</t>
+  </si>
+  <si>
+    <t>i would like to say i had the best experince at the " Custom Hotel " Weschester Ca. In the LA area. The two people who checked me in are the best at what they do..... make people happy. There names are Alfred Roberts and Breann Smith.. I was so stressed out when I got to the front desk. I had my crew with me and there was a glitch. They fixed it in a heart beat and sent me and my crew of about 7 people on our way to our rooms. If not for these two pleasant people I would have freaked out. Thank again for there patience and help. The rooms were wonderful...very clean and homey. I highly recommend this hotel and the wonderful staff. I give them 5 gold stars. Please try this hotel.... you will love it. Also got the chance to meet the general manager Gary Goroyan.... very nice guy.... classy dresser... got the James Bond look to him....classy ! Again please try this hotel....you will love it. Thank you again Custom Hotel :)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>i would like to say i had the best experince at the " Custom Hotel " Weschester Ca. In the LA area. The two people who checked me in are the best at what they do..... make people happy. There names are Alfred Roberts and Breann Smith.. I was so stressed out when I got to the front desk. I had my crew with me and there was a glitch. They fixed it in a heart beat and sent me and my crew of about 7 people on our way to our rooms. If not for these two pleasant people I would have freaked out. Thank again for there patience and help. The rooms were wonderful...very clean and homey. I highly recommend this hotel and the wonderful staff. I give them 5 gold stars. Please try this hotel.... you will love it. Also got the chance to meet the general manager Gary Goroyan.... very nice guy.... classy dresser... got the James Bond look to him....classy ! Again please try this hotel....you will love it. Thank you again Custom Hotel :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r541678142-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541678142</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Arrived late and they had trouble finding my reservation</t>
+  </si>
+  <si>
+    <t>Got in around 11:00pm and I am pretty sure they sold my room!  They asked for proof(lucky I had a printout of my reservation with an online booking company!). It seemed like a bad spot at night but it was quiet.  It’s a weird little wanna-be boutique hotel.  And if my queen bed was really a queen, I am shocked.  Paid for queen bed and got a weird little double on a shelf, very overpriced for what I got!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2017</t>
+  </si>
+  <si>
+    <t>Got in around 11:00pm and I am pretty sure they sold my room!  They asked for proof(lucky I had a printout of my reservation with an online booking company!). It seemed like a bad spot at night but it was quiet.  It’s a weird little wanna-be boutique hotel.  And if my queen bed was really a queen, I am shocked.  Paid for queen bed and got a weird little double on a shelf, very overpriced for what I got!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r540197838-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540197838</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odd Little Place </t>
+  </si>
+  <si>
+    <t>I stayed here for one night before I caught a coach out of the city, It does the job but it's nothing special, when I first got to my floor I felt like I was in a scene from "The Shinning" dark, gloomy and horrid I mean some of the hallways were painted black !! Very very odd and very very dated, I was in a twin room with two double beds the space was quite limited for the two of us (I was on tour so was sharing with another girl) The bathroom was very tiny and the bath shower didn't work properly either. My key card also stopped working a few times so I had to keep getting security toLet me in. I can't comment on breakfast as I was not up in time. Don't be fooled this hotel is not a "hotel airport" you are very close to the airport a urber drive away about a 6 min drive I spent 20mins asking shuttle drivers at the airport but they were going there so got the uber in the end. The hotel is advertised as being at the airport tho which is nothing other then annoying mind. There is a swimming pool but I did not use it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for one night before I caught a coach out of the city, It does the job but it's nothing special, when I first got to my floor I felt like I was in a scene from "The Shinning" dark, gloomy and horrid I mean some of the hallways were painted black !! Very very odd and very very dated, I was in a twin room with two double beds the space was quite limited for the two of us (I was on tour so was sharing with another girl) The bathroom was very tiny and the bath shower didn't work properly either. My key card also stopped working a few times so I had to keep getting security toLet me in. I can't comment on breakfast as I was not up in time. Don't be fooled this hotel is not a "hotel airport" you are very close to the airport a urber drive away about a 6 min drive I spent 20mins asking shuttle drivers at the airport but they were going there so got the uber in the end. The hotel is advertised as being at the airport tho which is nothing other then annoying mind. There is a swimming pool but I did not use it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r539175776-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539175776</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Room for MIDGETS</t>
+  </si>
+  <si>
+    <t>One king bed in the room.  The bed is only a mattress lying on the floor.  Height of the mattress is about 18 inches.  Two chairs in the room were also for midgets, only 18 inches high.  Was so bad I went to the front desk and told them that they had given me a room for midgets by mistake.  They laughed and said they would give me another room.  It was exactly the same. I am 74 and have bad knees.  Had to roll out onto the floor and then stand up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>One king bed in the room.  The bed is only a mattress lying on the floor.  Height of the mattress is about 18 inches.  Two chairs in the room were also for midgets, only 18 inches high.  Was so bad I went to the front desk and told them that they had given me a room for midgets by mistake.  They laughed and said they would give me another room.  It was exactly the same. I am 74 and have bad knees.  Had to roll out onto the floor and then stand up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r536292689-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>536292689</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Okay In a Pinch</t>
+  </si>
+  <si>
+    <t>Needed a place to stay last minute and booked this through Hotel Tonight. Overall, I would not recommend. Room needed a deep clean. Bathroom was decent size, but shower needed to be cleaned and/or replaced. The shower floor had major signs of wear and tear and did not drain well. Leaving me showering in ankle deep water. Thermostat could not be controlled, and was stuck at 71. This ended up being fine but never have experienced a lack of control before. If you’re in a pinch and need a place to stay, this will work, but if you’re not look elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Needed a place to stay last minute and booked this through Hotel Tonight. Overall, I would not recommend. Room needed a deep clean. Bathroom was decent size, but shower needed to be cleaned and/or replaced. The shower floor had major signs of wear and tear and did not drain well. Leaving me showering in ankle deep water. Thermostat could not be controlled, and was stuck at 71. This ended up being fine but never have experienced a lack of control before. If you’re in a pinch and need a place to stay, this will work, but if you’re not look elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r534639589-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>534639589</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Nice for a Night</t>
+  </si>
+  <si>
+    <t>Having stayed in Burbank for the majority of our trip we decided to move closer to our departure airport LAX for the night before.We were checked in fairly quickly and headed to our room on the 12th floor. The wife is not a huge fan of elevators and knocking noises were kinda creepy.The room, very basic. The bed is almost on the floor. There was one little chair in the corner of the room, a desk chair, small desk, little coffee maker, and small bathroom. There were places where the paint was pealing and there was a strange blue LED light in the window that we quickly shut off. The one thing we liked about the room was the great views of LA and LAX in particular, since I'm an aviation geek.The breakfast the next morning was ok. Nothing really over the top, but it did fill out empty bellies.We had a problem with the bill but the front desk person quickly took care of it.The ride to LAX was quick once the shuttle arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Having stayed in Burbank for the majority of our trip we decided to move closer to our departure airport LAX for the night before.We were checked in fairly quickly and headed to our room on the 12th floor. The wife is not a huge fan of elevators and knocking noises were kinda creepy.The room, very basic. The bed is almost on the floor. There was one little chair in the corner of the room, a desk chair, small desk, little coffee maker, and small bathroom. There were places where the paint was pealing and there was a strange blue LED light in the window that we quickly shut off. The one thing we liked about the room was the great views of LA and LAX in particular, since I'm an aviation geek.The breakfast the next morning was ok. Nothing really over the top, but it did fill out empty bellies.We had a problem with the bill but the front desk person quickly took care of it.The ride to LAX was quick once the shuttle arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r532202689-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532202689</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Custom hotel .....Outstanding location and a great staff</t>
+  </si>
+  <si>
+    <t>I've been to the Custom Hotel on 3 occasions in the last couple of months. The staff has made each stay great. Hotel amenities are consistently improving.  The location is unbeatable for convenience to the airport, Venice Beach, Santa Monica, and great restaurants. The rooms are larger then normal and provide some nice views. Will not disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>I've been to the Custom Hotel on 3 occasions in the last couple of months. The staff has made each stay great. Hotel amenities are consistently improving.  The location is unbeatable for convenience to the airport, Venice Beach, Santa Monica, and great restaurants. The rooms are larger then normal and provide some nice views. Will not disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r532173346-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532173346</t>
+  </si>
+  <si>
+    <t>Cool vibe and great staff!</t>
+  </si>
+  <si>
+    <t>I just stayed at Custom this week and loved my stay! The location was perfect for me and I thought my room wasspacious and neat as a pin clean. I had a few special requests ..even after normal business hours..and the staffalways went out of the way to take care of me. I did not have an opportunity to check out the bar/restaurant...I will have to try on my next trip! MoreShow less</t>
+  </si>
+  <si>
+    <t>I just stayed at Custom this week and loved my stay! The location was perfect for me and I thought my room wasspacious and neat as a pin clean. I had a few special requests ..even after normal business hours..and the staffalways went out of the way to take care of me. I did not have an opportunity to check out the bar/restaurant...I will have to try on my next trip! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r532101202-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532101202</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The hotel is great! I stayed there for one night and I arrived from LAX. They picked me up from the airport really quickly and it was pretty late at night. The staff were kind, they helped me get around and explained me about the local bus transportation.The bed was very comfortable and the room was well designed. The shower was a bit small but enjoyable.Overall i enjoyed my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is great! I stayed there for one night and I arrived from LAX. They picked me up from the airport really quickly and it was pretty late at night. The staff were kind, they helped me get around and explained me about the local bus transportation.The bed was very comfortable and the room was well designed. The shower was a bit small but enjoyable.Overall i enjoyed my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r527662030-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527662030</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>1st Experience @ The Custom Hotel &amp; Last</t>
+  </si>
+  <si>
+    <t>After Seeing Only Good Reviews From Different Web Sites About This Hotel, 
+I Decided To Make A Reservation &amp; Stay The Night.
+When I Landed @ The LAX Airport, I Called  The Hotel Requesting A Ride From their Complementary Airport Shuttle. I Was Told The Airport Shuttle Would Be Right Over To Pick Me Up.  I Waited 45 minutes.
+Upon Arriving I Checked Into This Hotel. The Hotel Staff Were friendly.
+However I Found The Online Pictures To Be Very Deceiving.  The Hotel is Not Nearly As Nice As I'd Hoped It To Be, Based Off The photos I Saw Online Of This Hotel.
+It's An Older Hotel, With Dark Dingy Hallways. As I Walked To My Room All I Could Smell Was The Odor Of Marijuana. 
+My Room Was Very Small &amp; Dark. The Bed Was Basically A Wood Box With A Mattress. No Box Spring.  The Bed Was Very Low To The Ground. 
+In The Bathroom My Toliet Was Leaking Water All Over The Bathroom Floor. 
+I Kept My Shoes On My Feet While In My Room &amp; I Kept All My Bags Up Off The Floor.
+I Just Didn't Feel The Room Was Very Clean.  Which Caused Me Not To Feel Comfortable In That Room During My Short Stay. 
+So I Guess, The Bottom Line Is, I'm Used To Marriott Quality Hotels or Nicer Hotels.
+This Hotel Was Just Not Up My Hotel Standards. I Personally Would...After Seeing Only Good Reviews From Different Web Sites About This Hotel, I Decided To Make A Reservation &amp; Stay The Night.When I Landed @ The LAX Airport, I Called  The Hotel Requesting A Ride From their Complementary Airport Shuttle. I Was Told The Airport Shuttle Would Be Right Over To Pick Me Up.  I Waited 45 minutes. Upon Arriving I Checked Into This Hotel. The Hotel Staff Were friendly.However I Found The Online Pictures To Be Very Deceiving.  The Hotel is Not Nearly As Nice As I'd Hoped It To Be, Based Off The photos I Saw Online Of This Hotel.It's An Older Hotel, With Dark Dingy Hallways. As I Walked To My Room All I Could Smell Was The Odor Of Marijuana. My Room Was Very Small &amp; Dark. The Bed Was Basically A Wood Box With A Mattress. No Box Spring.  The Bed Was Very Low To The Ground. In The Bathroom My Toliet Was Leaking Water All Over The Bathroom Floor. I Kept My Shoes On My Feet While In My Room &amp; I Kept All My Bags Up Off The Floor.I Just Didn't Feel The Room Was Very Clean.  Which Caused Me Not To Feel Comfortable In That Room During My Short Stay. So I Guess, The Bottom Line Is, I'm Used To Marriott Quality Hotels or Nicer Hotels.This Hotel Was Just Not Up My Hotel Standards. I Personally Would Never Stay At This Hotel Again. If Your Someone Who Stays In Hotels Often &amp; Have Certain Hotel Stay Expectations, This Hotel Is Not For You Either.But if your Someone Who Just Wants To Find A Cheap Hotel Room Rate,Then This Hotel Is The Place For You. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>After Seeing Only Good Reviews From Different Web Sites About This Hotel, 
+I Decided To Make A Reservation &amp; Stay The Night.
+When I Landed @ The LAX Airport, I Called  The Hotel Requesting A Ride From their Complementary Airport Shuttle. I Was Told The Airport Shuttle Would Be Right Over To Pick Me Up.  I Waited 45 minutes.
+Upon Arriving I Checked Into This Hotel. The Hotel Staff Were friendly.
+However I Found The Online Pictures To Be Very Deceiving.  The Hotel is Not Nearly As Nice As I'd Hoped It To Be, Based Off The photos I Saw Online Of This Hotel.
+It's An Older Hotel, With Dark Dingy Hallways. As I Walked To My Room All I Could Smell Was The Odor Of Marijuana. 
+My Room Was Very Small &amp; Dark. The Bed Was Basically A Wood Box With A Mattress. No Box Spring.  The Bed Was Very Low To The Ground. 
+In The Bathroom My Toliet Was Leaking Water All Over The Bathroom Floor. 
+I Kept My Shoes On My Feet While In My Room &amp; I Kept All My Bags Up Off The Floor.
+I Just Didn't Feel The Room Was Very Clean.  Which Caused Me Not To Feel Comfortable In That Room During My Short Stay. 
+So I Guess, The Bottom Line Is, I'm Used To Marriott Quality Hotels or Nicer Hotels.
+This Hotel Was Just Not Up My Hotel Standards. I Personally Would...After Seeing Only Good Reviews From Different Web Sites About This Hotel, I Decided To Make A Reservation &amp; Stay The Night.When I Landed @ The LAX Airport, I Called  The Hotel Requesting A Ride From their Complementary Airport Shuttle. I Was Told The Airport Shuttle Would Be Right Over To Pick Me Up.  I Waited 45 minutes. Upon Arriving I Checked Into This Hotel. The Hotel Staff Were friendly.However I Found The Online Pictures To Be Very Deceiving.  The Hotel is Not Nearly As Nice As I'd Hoped It To Be, Based Off The photos I Saw Online Of This Hotel.It's An Older Hotel, With Dark Dingy Hallways. As I Walked To My Room All I Could Smell Was The Odor Of Marijuana. My Room Was Very Small &amp; Dark. The Bed Was Basically A Wood Box With A Mattress. No Box Spring.  The Bed Was Very Low To The Ground. In The Bathroom My Toliet Was Leaking Water All Over The Bathroom Floor. I Kept My Shoes On My Feet While In My Room &amp; I Kept All My Bags Up Off The Floor.I Just Didn't Feel The Room Was Very Clean.  Which Caused Me Not To Feel Comfortable In That Room During My Short Stay. So I Guess, The Bottom Line Is, I'm Used To Marriott Quality Hotels or Nicer Hotels.This Hotel Was Just Not Up My Hotel Standards. I Personally Would Never Stay At This Hotel Again. If Your Someone Who Stays In Hotels Often &amp; Have Certain Hotel Stay Expectations, This Hotel Is Not For You Either.But if your Someone Who Just Wants To Find A Cheap Hotel Room Rate,Then This Hotel Is The Place For You. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r526374726-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>526374726</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>Having lived on the westside the last five years I was shocked to find out about the hidden gem that is the Custom Hotel. I recently had some friends in town and they were looking for a place near LAX that was fun. Told them so stay at Custom after hearing how it's recently been under new management. Called the Sales manager Lindsay and she assured me my friends would enjoy their stay, and she was right. My friends loved the accessibility to all of the good things the westside has to offer, Santa Monica, Abbot Kinney, beaches and great restaurants/bars. It's also a great place to pregame by the pool before hitting the town. I'll be hanging out there more often and will always recommend to my friends who wanna be on the westside.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Having lived on the westside the last five years I was shocked to find out about the hidden gem that is the Custom Hotel. I recently had some friends in town and they were looking for a place near LAX that was fun. Told them so stay at Custom after hearing how it's recently been under new management. Called the Sales manager Lindsay and she assured me my friends would enjoy their stay, and she was right. My friends loved the accessibility to all of the good things the westside has to offer, Santa Monica, Abbot Kinney, beaches and great restaurants/bars. It's also a great place to pregame by the pool before hitting the town. I'll be hanging out there more often and will always recommend to my friends who wanna be on the westside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r526167443-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>526167443</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic   friendly staff </t>
+  </si>
+  <si>
+    <t>Basic hotel,  spacious fairly clean. Close to airport and supermarket, not much else around. Free shuttle bus.  Driver Tyrone is awesome. All the staff were really helpful. Couldn't figure out how to work the shower and the bath was really small.  Good for a quick stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Basic hotel,  spacious fairly clean. Close to airport and supermarket, not much else around. Free shuttle bus.  Driver Tyrone is awesome. All the staff were really helpful. Couldn't figure out how to work the shower and the bath was really small.  Good for a quick stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r523958146-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523958146</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Great airport layover hotel, everything was wonderful! Thank you :)</t>
+  </si>
+  <si>
+    <t>This was a wonderful hotel to visit prior to our flight leaving LAX. Very convenient with a free shuttle. The rooms and the facilities were fantastic. And the staff were absolutely wonderful when we raised a couple of discussion points, they very quickly came to superb arrangements for us. To lounge by the pool while awaiting our international flight was particularly great! The bed was super comfy. Everything was very good. The price was also great considering LAX airport prices. No complaints and I will definitely stay here again!  Thank you :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>This was a wonderful hotel to visit prior to our flight leaving LAX. Very convenient with a free shuttle. The rooms and the facilities were fantastic. And the staff were absolutely wonderful when we raised a couple of discussion points, they very quickly came to superb arrangements for us. To lounge by the pool while awaiting our international flight was particularly great! The bed was super comfy. Everything was very good. The price was also great considering LAX airport prices. No complaints and I will definitely stay here again!  Thank you :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r521532435-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521532435</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>Took a quick weekend getaway to LAX to escape the heat in PHX so we booked a room at the Custom Hotel. Trent and Jerson made our trip extra special by giving us these "Pilot in Training" wings. It was a nice touch since the hotel gave off a lot of aviation vibes. The room was nice, too. The first thing that caught our eye when we walked in was the rainbow neon light by the window. I've stayed in many hotels in my lifetime and I have  NEVER seen that before so that made the hotel memorable. Thank you guys!!!-Thomas and WalterMoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Took a quick weekend getaway to LAX to escape the heat in PHX so we booked a room at the Custom Hotel. Trent and Jerson made our trip extra special by giving us these "Pilot in Training" wings. It was a nice touch since the hotel gave off a lot of aviation vibes. The room was nice, too. The first thing that caught our eye when we walked in was the rainbow neon light by the window. I've stayed in many hotels in my lifetime and I have  NEVER seen that before so that made the hotel memorable. Thank you guys!!!-Thomas and WalterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r521344056-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>521344056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>The location was good and the employee named Trent was absolutely excellent. He went above and beyond to help me out. He pointed out the bus stop I needed for Venice beach as well as charged my phone in his personal office. He was very professional and courteous. On the other hand there was a nighttime employee who was at the computer all the way on the right if your facing the desk on september 3rd. He was absolutely useless and rude. He refused to fill up the water in the lobby or change the music by the pool. He was very rude. I complained about him to the night shift manager who comes in in the morning and all he said was "I'm sorry about that". If your staying for a night or 2 the hotel is fine. Don't expect much other than a good location and clean room. Pool was small. MoreShow less</t>
+  </si>
+  <si>
+    <t>The location was good and the employee named Trent was absolutely excellent. He went above and beyond to help me out. He pointed out the bus stop I needed for Venice beach as well as charged my phone in his personal office. He was very professional and courteous. On the other hand there was a nighttime employee who was at the computer all the way on the right if your facing the desk on september 3rd. He was absolutely useless and rude. He refused to fill up the water in the lobby or change the music by the pool. He was very rude. I complained about him to the night shift manager who comes in in the morning and all he said was "I'm sorry about that". If your staying for a night or 2 the hotel is fine. Don't expect much other than a good location and clean room. Pool was small. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r517189954-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>517189954</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Tries to be a Modern Hipster Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here two nights in August 2017. It is fitted out to be a modern hipster hotel, good for 'Contiki tour' types but not for families. Ideally suited for backpackers with some money to burn. Not happy with the low height bed (near futon size) and traffic noise. Lighting in the bathroom needs increasing. Some fittings have been over painted to give impression of a refurbishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gary G, General Manager at Custom Hotel, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here two nights in August 2017. It is fitted out to be a modern hipster hotel, good for 'Contiki tour' types but not for families. Ideally suited for backpackers with some money to burn. Not happy with the low height bed (near futon size) and traffic noise. Lighting in the bathroom needs increasing. Some fittings have been over painted to give impression of a refurbishment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r515930241-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>515930241</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>DONT WASTE THE MONEY</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here before our flight out of LAX (we rented a car from Turo and the lot is right out back, but that is the ONLY positive thing I can say about this hotel!) The pictures online are beyond deceiving. This "boutique" hotel should not be classified as anything more than a high rise frat house. The guy who checked us in had absolutely no personality and said a total of 5 words to us, name..credit card and id and then the room number. The rooms were tiny and FILTHY. I had a hard time even walking around the room with shoes on as there were someone else's toenail clipping all stuck to the rug on the side of the bed. The beds are TINY - felt like your getting into a child's bed. The room has no decorations on the walls and didn't even have a clock. I wouldn't stay here again if they paid me.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here before our flight out of LAX (we rented a car from Turo and the lot is right out back, but that is the ONLY positive thing I can say about this hotel!) The pictures online are beyond deceiving. This "boutique" hotel should not be classified as anything more than a high rise frat house. The guy who checked us in had absolutely no personality and said a total of 5 words to us, name..credit card and id and then the room number. The rooms were tiny and FILTHY. I had a hard time even walking around the room with shoes on as there were someone else's toenail clipping all stuck to the rug on the side of the bed. The beds are TINY - felt like your getting into a child's bed. The room has no decorations on the walls and didn't even have a clock. I wouldn't stay here again if they paid me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r514897460-Custom_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>514897460</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Not worth the price</t>
+  </si>
+  <si>
+    <t>The room was clean and nicely decorated. Beds have terrible mattresses. Husband and I woke up with backaches because of them. Used only to spend the night and thought that charging $35 additional for "valet" parking was extreme considering the area and the high cost of the booking for the type of hotel. No place to have breakfast nearby except a coffee shop in the corner or at the market next door. Convenient for quick overnight stays for business travelers on expense accounts.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and nicely decorated. Beds have terrible mattresses. Husband and I woke up with backaches because of them. Used only to spend the night and thought that charging $35 additional for "valet" parking was extreme considering the area and the high cost of the booking for the type of hotel. No place to have breakfast nearby except a coffee shop in the corner or at the market next door. Convenient for quick overnight stays for business travelers on expense accounts.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2007,3406 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>110</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>290</v>
+      </c>
+      <c r="K33" t="s">
+        <v>298</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>226</v>
+      </c>
+      <c r="O36" t="s">
+        <v>147</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>330</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>340</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>348</v>
+      </c>
+      <c r="X39" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>352</v>
+      </c>
+      <c r="J40" t="s">
+        <v>353</v>
+      </c>
+      <c r="K40" t="s">
+        <v>354</v>
+      </c>
+      <c r="L40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>356</v>
+      </c>
+      <c r="X40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X41" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>147</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>381</v>
+      </c>
+      <c r="X43" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>387</v>
+      </c>
+      <c r="L44" t="s">
+        <v>388</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>389</v>
+      </c>
+      <c r="O44" t="s">
+        <v>110</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>390</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" t="s">
+        <v>396</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>390</v>
+      </c>
+      <c r="X45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>399</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
+        <v>400</v>
+      </c>
+      <c r="L46" t="s">
+        <v>401</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>372</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>389</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>410</v>
+      </c>
+      <c r="X47" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>413</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J48" t="s">
+        <v>415</v>
+      </c>
+      <c r="K48" t="s">
+        <v>416</v>
+      </c>
+      <c r="L48" t="s">
+        <v>417</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>418</v>
+      </c>
+      <c r="O48" t="s">
+        <v>147</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>419</v>
+      </c>
+      <c r="X48" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+      <c r="J49" t="s">
+        <v>424</v>
+      </c>
+      <c r="K49" t="s">
+        <v>425</v>
+      </c>
+      <c r="L49" t="s">
+        <v>426</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>427</v>
+      </c>
+      <c r="X49" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>431</v>
+      </c>
+      <c r="J50" t="s">
+        <v>432</v>
+      </c>
+      <c r="K50" t="s">
+        <v>433</v>
+      </c>
+      <c r="L50" t="s">
+        <v>434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>389</v>
+      </c>
+      <c r="O50" t="s">
+        <v>147</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>435</v>
+      </c>
+      <c r="X50" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>438</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>439</v>
+      </c>
+      <c r="J51" t="s">
+        <v>440</v>
+      </c>
+      <c r="K51" t="s">
+        <v>441</v>
+      </c>
+      <c r="L51" t="s">
+        <v>442</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>389</v>
+      </c>
+      <c r="O51" t="s">
+        <v>110</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s">
+        <v>449</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>443</v>
+      </c>
+      <c r="X52" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>453</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
+      </c>
+      <c r="O53" t="s">
+        <v>147</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>418</v>
+      </c>
+      <c r="O54" t="s">
+        <v>110</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>456</v>
+      </c>
+      <c r="X54" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56310</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" t="s">
+        <v>468</v>
+      </c>
+      <c r="L55" t="s">
+        <v>469</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>418</v>
+      </c>
+      <c r="O55" t="s">
+        <v>110</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>456</v>
+      </c>
+      <c r="X55" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Alexander N</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>Stayed there twice. During one stay, a broken iron ruined my shirt. Management politely apologized and promised me a refund, which was never issued. I do not recommend this hotel for business travels.More</t>
+  </si>
+  <si>
+    <t>LAF08</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r589327161-Custom_Hotel-Los_Angeles_California.html</t>
@@ -227,6 +233,9 @@
 The carpeting continued into the...Booked the Custom to make my move from one apartment to the other smoother, and after a quick trip out of town.The shuttle experience was smooth- just as I called to see if it was coming around, he pulled up and we were on our way.Check-in was also fine- no problems there.  The lobby is sleek and modern, and the staff is decidedly youthful.  Custom seems to be going for an urban contemporary feel, and the lobby delivers.  In the mornings there is a nice-looking breakfast set-up- I was rushing off to work so I didn't get to investigate further, but I wanted to. The hotel is in a great location- obviously convenient to the airport for short-term visitors, but also within walking distance to restaurants, and immediately adjacent to a supermarket (and bowling alley, if you're into that kind of thing).My view, from both rooms (more on that shortly), was very cool- the LAX runway in full action.Beyond that . . . things lose their luster a bit.  There is a hotel trend of taking older buildings and "modernizing" them cosmetically, with neutral paint, hip art, and minimalist furniture.  Some are compelled by it, and others, like myself, aren't.The elevator was the first clue- it was obviously old, and looked like a freight elevator with industrial carpeting on the floor, and on the elevator walls, if I recall correctly.The carpeting continued into the hallways upstairs, painted in extremely dark colors, like an amateur attempt at replicating hotels like W or SLS, that are dark but luxurious, creating a sultry atmosphere.  Custom's hallways are less sexy and more . . . ominous?  The strange carpet doesn't end in the high-traffic area of the hallways- no, it's in the guest rooms, too.  There's also a strange, old smell in the halls.  Not bad, just . . . old.In my first room, the tv wouldn't turn on.  The good news: when I called the front desk, they contacted maintenance and got back to me very quickly.  The bad news: there would be no fixing the tv and I had to change rooms.  Sigh, okay.When I went back downstairs to get my new key, I noticed that the clerk was taking another call, promising to contact maintenance right away, I assume for another guest.When I got to my second room, I noticed that one of the elevators was out of order.  It was just a lot of malfunction to observe in such a short period of time.An upside to sparse, minimalist furniture is that the rooms seem spacious, I guess.  It begs the question, though, why they wouldn't make those king rooms instead of single queen rooms.  The beds are low to the floor, as are the chairs, which isn't good or bad- it's just a matter of preference, I guess.  Another guest in the elevator, unprompted by me, said he was disappointed because it felt like he was staying in a college dorm room.All of that said, the bed was clean and relatively comfortable.  Also, one thing Custom got 100% right: the bathroom.  Even though I hate pedestal sinks, theirs have large countertops that are more than adequate for storing your toiletries.The showerhead was huge with great water pressure and temperature, and although the tub was older, it appeared clean.  The towels were thick and fluffier than most that you encounter in hotels. Overall, my experience was pleasant, but the facilities at Custom just don't give off a feeling of modern luxury- and maybe that was too much to expect.  After all, it was a decent rate.More</t>
   </si>
   <si>
+    <t>Laurie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r588576931-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
     <t>BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that...BEWARE! I pre-booked a week ahead of time for JUNE 7th, 2018. I called before I left and spoke with Custom Hotel on the same day of planned travel. I confirmed my booking for parking and the man was super nice. He said I was all set! 3 hours commute to LA and my daughter and I were so relieved to finally arrive at Custom. I pulled up to valet and handed him my reservation slip. He looked at me and said, sorry I have no spots left! My heart sunk and I said, your kidding me, right? Nope he said, I'm not kidding, I have nothing for you. I tried to plea with him, reminding him I have a flight to catch and that I had made reservations, PLUS confirmed earlier in the day. He was so cruel and rude to me. He only kept saying NO SPACE! As I was near tears and afraid of missing my flight, I remained persistent and begging him. He jotted down a phone number to way.com and told me to call them and look for different parking. I am in a unfamiliar big city and now without a plan and my flight leaves in 2.5 hours. My daughter and I sat in the car and cried for a minute and pulled ourselves together and called way.com. I was in disbelief that a business could be that crude to not honor something that was already bought and paid for and leave a customer hanging! PLEASE DO NOT TAKE YOUR CHANCE WITH THIS HOTEL PARKING....you could be left in limbo and miss your flight! Worst customer experience in my history and that says a lot. I can only hope that way.com would remove this hotel from the line up of choices. Thank's to way.com for hooking me up with another spot at The Hyatt as quickly as they could. I barely made my flight, but I survived this ordeal.More</t>
   </si>
   <si>
+    <t>rod g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r586286639-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t>Found this place after an uber driver dropped me off in the wrong place. Phoned ahead to make the booking. Easy and helpful staff on the phone. Easy check in , free shuttle to LAX. My room over looked the runway!Comfy bed shower over bath  nice simple room decor. Great bar and pool area just next door. Will certainly stay here again. Not expensive at all and nicer than some of the big chain hotels. More</t>
   </si>
   <si>
+    <t>Kaylee A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r584838207-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
     <t>I have stayed here a few times because of location but I honestly keep forgetting why.  The pool is tiny, the rooms are super loud and need work and parking is expensive. This time our shower was falling apart. Its conveniently located for layovers but other than that, there's many better hotels for a the price. More</t>
   </si>
   <si>
+    <t>Kimberly85044</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r583765988-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -320,6 +338,9 @@
     <t>I needed a place to stay on a layover at LAX.  This hotel offered a shuttle to the airport and the online pics made it seem kind of hip and trendy.  The shuttle driver picked us up and was nice.  The lobby looked kind of cool.  We entered a hotel that looked like it had been on HGTV’s design on a dime.  Could have been cool but corners were cut. My kids asked if their was a mattress on the bed or just box springs because the mattresses were so firm. The beds are full size not queen sized beds.  I’m pretty sure I have a contact high from the marijuana smell coming down the hall on my floor.  So we then went to the pool.  My kids had fun in the heated pool and my husband and I enjoyed a few poolside drinks.  The bartender was great.  Drinks were pricey but generally a cool environment.   This hotel is in a good walkable location and honestly aside from some aesthetic problems I wasn’t expecting. We had no major issues.   I’d stay at another airport hotel next time though. More</t>
   </si>
   <si>
+    <t>Anne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r581634799-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -347,6 +368,9 @@
     <t>The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good....The Custom Hotel is good because it's close to LAX and has a free shuttle, while also being in a nice walkable neighbourhood next door to a grocery store which is open till 2am. There are various restaurants and other shops close by too (but not open as late!). I think there are bus stops around there as well but I didn't use buses. I last stayed in October 2015 and the place/room was looking more down-at-heel this time. The room did have a reasonable amount of space and I liked the cool desk seat on wheels and the complimentary toiletries. It had quite a nice view, albeit through rather smeary windows, over houses to LAX and the sea, although I wasn't as high up as last time so not as good for watching the planes.  Wi fi, the number of power sockets, lighting, desk, phone dock and coffee maker were all ok.  It was pretty quiet and I slept well. The staff were helpful and the breakfast was quite good. Unfortunately somehow the shuttle driver missed picking me up the first time around (he might not have got the right info, not sure) so I had to wait outside the airport for 30-40 minutes from about 9pm, tired, cold and hungry, and with lots to do that evening as I was flying home the next day, watching all the other hotels' shuttles come and go, and come again...not good. But on the way back I got a quick solo ride outside of the advertised times, and assiduous help with luggage.More</t>
   </si>
   <si>
+    <t>elizabeth s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r581099154-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -368,6 +392,9 @@
     <t>Close to airport and the shuttle driver was nice are only ups. Unless you are saving considerably I would avoid . Its just run down and creepy as hell. It really felt like Bates motel. The matress is so hard also . This place was very filthy I felt like I got bites on me. The shower was modern .. I would never stay again More</t>
   </si>
   <si>
+    <t>Jose Antonio H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r580557803-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -386,6 +413,9 @@
     <t>I booked and pre-paid this hotel in order to have a rest before my connecting flight to China, but as soon as I arrived to the counter around 1am  they told me they were no rooms available, and that I had to wait until 4am, when my flight is 7am. The person at the counter didnt even bother to find a solution, practically his response was to wait in the couch. I´ve traveled a lot around US, first time I´ve experience this lack of customer service.More</t>
   </si>
   <si>
+    <t>moose87nz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r577575742-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -410,6 +440,9 @@
     <t>This is the worst hotel I have ever stayed in and only gave it one star because it didn’t accept a score of zero. I have a terrible migraine because my room smelled like someone had just smoked three packs of cigarettes. This must be the employee break room. My family arrived so late in the evening and we where all too tired to demand a room change. Seriously the towels, sheets and pillows are just too smelly from cigarettes. We had to have the window open and that doesn’t prove for a restful sleep when LAX is right next door. The bathroom door does not close and there is no lock. There is no door on the ‘second’ bedroom which really is just a lumpy mattress on the floor. There is however a door with a lock on the other bedroom. However this is a key card hotel door lock which can not be opened with the main door key card so if it closes tough luck. We had to keep it open all night. What is the point of having two room. The light in th front entrance doesn’t have a switch to turn it off so glared in our eyes all night long.  We received only two breakfast vouchers despite having four people. Please do yourself a favor and save a migraine stay onywhere else.More</t>
   </si>
   <si>
+    <t>La_fl_drew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r577496195-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
   </si>
   <si>
     <t>Not a good hotel from a value, quality, and service standpoint. The room (Queen Deluxe) was very low quality for the prices. Despite the room being spacious, it did not feel comfortable, had poor decoration, and echoed inside. The bathroom was small and had wear and tear with the sink and tub.There are two reasons why you should avoid this hotel: the bed was completely worn out and the towels were not clean--having stains on them. The bed is ultra cheap and the springs are worn out. It's very uncomfortable and cheaply made. One of the towels I was given had a large, brown stain on it. Not sure what it was but that's unacceptable. Some of the other towels looked worn.There are plenty of other hotel options nearby for the same price that offer a higher quality. I recommend visiting those before the Custom Hotel.More</t>
+  </si>
+  <si>
+    <t>Maggie B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r576549104-Custom_Hotel-Los_Angeles_California.html</t>
@@ -462,6 +498,9 @@
 A totally horrible experience for which they had the nerve...I was stranded in Los Angeles after 2 flight cancellations. I was able to get a reservation at this supposed “4 Star” hotel. There was no coffee or food available after midnight. The room was small and very old. Every wall was painted dark gray in a very poor paint job. Carpet in room and gray hallway was old and faded and looked as though it hadn’t been replaced or even cleaned in the 10+ years (according to the shuttle driver) since ithe hotel had assumed this identity.  There was no closet in the room, lots of noise all night from other rooms, (makes one wonder what was happening with all the coming-and- goings all night) a very uncomfortable bed, and flashing lights around the window - I was told these were “decorations”. The bathroom was old and small with no amenities in sight except a few tiny wrapped bars of soap. The door and lock were commercial grade. Apparently only one of the 3 elevators was operational. The shuttle to the airport, which operated only on their schedule, had no baggage area and the driver kept switching bags and stacking them on available seats - of which there were very few. The driver had such loud music in the van that I was unable to talk on the phone to try to salvage what was left of my trip.  A totally horrible experience for which they had the nerve to charge more than $200 !!More</t>
   </si>
   <si>
+    <t>martinigirl312</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r574385144-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Stayed one night because it was close to the airport and a friend we were visiting. Valet is $36.00 a night and there is not anywhere close to park otherwise. Check in went smoothly, although friendliness and a smile were surely not included. The room- here is the terrible part- sparse would be understatement. The bed is a platform bed about 12 inches from the floor. The bed is attached to a desk and the whole thing creaks if you just try to turn over. Impossible to get any sleep at all.  Two chairs are the same, low to the floor with no table near them. Impossible to get in or out of them easily.  Switch to turn on the floor lamp was laying on the floor next to the lamp. Dim lighting and add the fact that the light by the bar area did not work. The lights in the bathroom were yellowed and dim too. We were so uncomfortable that we left the hotel about 5 am. Just could not take it anymore. Same blah check out. Never ever again,.More</t>
   </si>
   <si>
+    <t>Timi T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r574385028-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +546,9 @@
     <t>It is a room suited for a 1 or 2 night stop over. Its affordable and close to LAX. Free shuttle that runs regularly and on a main road so plenty of restaurants nearby. And a dispensary to. You get what you pay for. It's clean and staff are friendly.More</t>
   </si>
   <si>
+    <t>Terry Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r573838586-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -528,6 +573,9 @@
     <t>We check in on April 16 2018, to find there is not a desk in the room, we are on our knees with the computer on the bed. NO PARKING unless you pay for valet park and the nearest parking is more than a block . Needless to say wil NEVER stay here again! Might be fine if your 20 but we are in our 60’s.More</t>
   </si>
   <si>
+    <t>Matthew D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r572785910-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -550,6 +598,9 @@
   </si>
   <si>
     <t>Booked on Priceline Express deal where the hotel isn't revealed until after the transaction is submitted.  This was a mistake on my part.  Even though it was very economical, this is not a 3.5 star hotel.I reserved a Premium room with a king sized bed.  The reality was a queen size bed that was placed on a simple Ikea type frame.  It is reminiscent to a bed in Mumbai or Bejing.  Hard and nasty.  I would have liked a complementary water in the room, but the cheap and cheerful $.0.25 bulk bottle water was $3,00 fro the 16 oz bottle. Fiji water perhaps but Nestle's?  Lots of noise from the airport runway and planes taking off and landing. Hate ot be so negative but this hotel is akin to an AirBnB or youth hostel.  Cheap and chearful except it wasn't that cheap. More</t>
+  </si>
+  <si>
+    <t>supascoopa4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r572556307-Custom_Hotel-Los_Angeles_California.html</t>
@@ -586,6 +637,9 @@
 - The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all...BASICS: I travelled as a solo woman in the first week of April. I did not expect much from this hotel. I splurged on a hotel near Palm Springs the weekend prior so I chose the CUSTOM for it's affordability and its proximity to LAX as I had an early flight the next morning. I did not intend on spending much time in the hotel other than to sleep. For the record, I stayed at the Custom in April of 2013 and it actually felt like a nice budget boutique hotel back then. All reviews prior to 2017 have been removed from TripAdvisor, so I don't know what happened there. I left a positive 4-star review back then because the place was nice and it was worth the money we paid at the time. The only reason this place is getting 2-stars is because it served its purpose as a "cheap" place to stay the night before a flight. I paid US$87 before taxes. Of course, after factoring in valet parking costs (US$35), it's not that cheap anymore, but it comes with the territory of accommodations in LA.PROS:- Only pros are its price and location. - The valet guys and the man working at the restaurant were also quite nice. I tried to tip them well because there are some inconsiderate people at this hotel and I feel bad that they have to put up with them all day.CONS:- The rooms are basic and simple. They're also incredibly run down. It doesn't look like anyone has done any maintenance since 2013. The rooms used to feel swanky and boutique-y, there were lots of amenities and color on the walls and furniture. Now, it's white and spartan and feels incredibly cold. Whatever touch-ups were made, they were the bare minimum. Whoever re-painted, it looks like they didn't use tape, the paint lines are just all over the place. There's a low bed in the middle of the room and a small table next to it. The iPod machine is ancient using the old 30-pin ports. - Poor lighting in the rooms and bathrooms. The bathroom feels like a dorm bathroom. The overhead light flickered constantly.- What's the point of a view if the windows are so dirty that you can't see anything? I don't think the windows have been cleaned since I last stayed here.- The black-out blinds are super old. They're dirty and have stains and holes all over them.- The lighter curtains that go over the blinds are so yellow and gross feeling, almost like they're sticky. I had to crawl behind them to reach the pulley for the blinds and the feeling of the curtain material against my skin made me feel dirty. - Showers are awful. (Funnily enough, the only complaint I had in 2013 was the shower. No hot water and very low water pressure back then). The tub didn't drain and the showerhead leaked the entire night. Not a drip-drip-drip but like a constant but inconsistent stream. The knobs were also inconsistent. They're not labeled with directionality so I just guessed in which direction they had to be turned. When I went to turn the shower off, I gambled and turned the hot knob the wrong way and cold water just poured all over me. - Elevators smelled like a public bathroom. You know that odor in a restroom, that stale urine + overuse of air freshener + acerbic cleaning product smell? Yeah, that, and it wafted down the hallways too.- Unfriendly front desk staff, both the night I checked in and the morning I checked out. As someone previously mentioned, they each say about 5 words total to you: "Hi. Room #. Password for wifi. Bye."TIPS:- This place is sooo far from what it used to be and could've been. It just felt so old and sad, like an abandoned hostel in a B horror movie. Stay elsewhere. Go to the Marriott or Sheridan. About $10-$20 more but parking is free so it all works out. Better dining options too.More</t>
   </si>
   <si>
+    <t>kfschmidt61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r571782860-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -613,6 +667,9 @@
     <t>The staff are very professional and courteous. But it appears that they are not investing in maintaining the hotel. We stayed in a 2 bedroom, well not really. Read the description; "separated by a foyer". What they are calling one of the bedrooms, should be a living area, there is none. But in the "foyer" there is a light and there is no door on that "2nd bedroom" so the light stays on all night. I called the front desk and even spoke to the supervisor, they said nothing they could do. - Really? So my husband, unscrewed the bulb. The first room we had reeked of smoke. They moved us. The whole time we were there the halls and elevators smelled of marijuana. The bathroom doors are swinging doors, so they don't close. Again, really? Now, I'll also say it is not expensive. Below, one of the questions is about serving breakfast, yes, they do, but for a charge.More</t>
   </si>
   <si>
+    <t>jessicamaldonado623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r568315287-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -637,6 +694,9 @@
     <t>On our we to Las Vegas our plane got delayed airlines had to get us a hotel we stay at the customs hotel it was a really nice hotel the employees are very nice enjoyed the little time I was there.... thank you to the valet manger lupeMore</t>
   </si>
   <si>
+    <t>konalizza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r566764081-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -661,6 +721,9 @@
     <t>Huge add on in my opinion, do not consider parking on the street, must pay the extra 35 for valet parking. The staff very friendly, hotel in good location, room was clean, good linens, non working ac, stays only one night.More</t>
   </si>
   <si>
+    <t>Elizabeth P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r566452559-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -683,6 +746,9 @@
   </si>
   <si>
     <t>Had to find a place to stay for couple of nights -totally unexpected layover in LA and bam! Custom Hotel was it! On check-in staff far exceeded customer service and personality plus with a smile! Exhausted, we went up to the room- so impressed for the price -huge room clean, modern -and I'm fussy about cleanliness! Went down to the restaurant which overlooked the pool and cabanas - quite a nice ambiance -fabulous food and great wine list! It wasn't  too far in  a taxi from LAX, but  re  sightseeing you just have to organise shuttles etc. There's  such a safe and easy going vibe round there, next door to hotel was a grocery store that had everything you need and round corner best frozen yoghurt place!  It was just the right place for our  break and rest before heading back home! More</t>
+  </si>
+  <si>
+    <t>Alan B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r565357148-Custom_Hotel-Los_Angeles_California.html</t>
@@ -711,6 +777,9 @@
 The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was...We were bumped from another hotel that we had a reservation at that was overbooked and our travel agent moved us to this hotel due to all the hotels in the area being full.  Let me start by giving the positives... the staff were really great.  The gentleman at the front desk was super nice when we checked in.  The valet was very nice and quick.  However, that is where the positives end and the negatives begin.  The hallways are painted a very dark color (almost black).  Parts of room were painted this same dark color.  It feels like you are in a prison.  The hotel smelled like smoke everywhere (halls, elevator, our room).  Some of the clientele at the hotel were very sketchy (many seemed drunk or stoned).  The beds were hard as a rock and sitting on a platform that was only about 6 inches off the floor.  The very limited furniture looked very flimsy and cheap.  We were given a "suite" that had two double doors that had a deadbolt, but no chain or bar like most hotels have.  I am pretty sure my 11 year old daughter could kick it in easily.  We put a chair in front of the door not that we thought it would keep anyone out but we hoped it would at least make some noise if someone tried to get in.  The only reason we remained there was because it was already after midnight when we arrived and we were desperate for some sleep before our early morning flight.  My wife commented that she would never have stayed there if I hadn't been there. The room also had outlets at weird places and weird heights (like 4 foot up the wall).  Maybe there had been a table there at one point.Stay away!  Even though the staff we encountered were great, the hotel needs major investment and a strong non-smoking policy that is enforced.More</t>
   </si>
   <si>
+    <t>Harish B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r564740986-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -738,6 +807,9 @@
     <t>Was attending a conference in Long Beach in December and had an early morning flight out of LAX.  The decision to move to the Custom Hotel for one night before the flight was a great one.  First, I got a very cheap Lyft fare from Long Beach to the Custom because I traveled outside of peak hours.  Second, I slept well at the Custom and was totally ready for my flight.  The staff are friendly, and there is a great taqueria nearby.More</t>
   </si>
   <si>
+    <t>HungryDave1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r563721333-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -765,6 +837,9 @@
     <t>I stayed here one night while waiting to fly out the next day from LAX.  Overall this hotel did not impress.  I would give it a slightly above average rating.  From the website photos, you would think it is this retro cool place.  No.  It is retro old.  It is an old building with a paint job.  Well, the paint on my floor was a dark grey.  It was depressing.  They need to go out and hire whoever does the decor for Aloft.  Now that hotel is retro cool.I did not like that they only had valet parking.  No self parking.  Does it look like I am Daddy Warbucks and made of money?  I am a middle class traveler on a budget.I like that the airport shuttle was free.  But it only runs once every 45 minutes.More</t>
   </si>
   <si>
+    <t>richardg6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r562836505-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -789,6 +864,9 @@
     <t>. Arrived there late in the evening, . Our request for a nice room on upper floor was gladly complied with. In spite of a busy evening Sam at the reception  was very nice, courteous and accomodating.The location is excellent, close to the airport but without the noise of  jet engines. Probably one of the best hotels near LAX airport.Highly recommended.More</t>
   </si>
   <si>
+    <t>Sue-ie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r561676079-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>I stayed here for a about a week in January. I liked the location of the hotel, it's walking distance to a few restaurants and grocery stores. The room itself was adequate, the bathroom was small and a bit dated, and the bed was comfortable. I had issues with adjusting the temperature, it just felt extremely cold even when I adjusted the heat setting. Parking is valet only, I had different experiences each day, my car was parked outside and some of the valet will wipe down my windows before I drove off. And on other days they just gave me the car without wiping down the windows. I also had key issues. I had to constantly go downstairs to get a new key when i came back everyday. Some of the front desk people apologized, but some of them didn't offer an apology even when I had my hands full and had expressed frustration due to the constant key issues. I had spoken to another guest and she had told me she had the same key issues. Overall, it was an okay stay, nothing spectacular.More</t>
   </si>
   <si>
+    <t>TC_Brickell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r560538176-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -838,6 +919,9 @@
   </si>
   <si>
     <t>This hotel never disappoints. My last stay I went over to try the deck 33 restaurant . Great food and drink while overlooking the pool. I Highly recommend adding this stop to your dinner menu. The hotel location is the absolute best, central to all destinations in the area. Each time I stay I notice improvements. Future is looking great for this hotel.  Looking forward to my trip back More</t>
+  </si>
+  <si>
+    <t>Paul B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r557509035-Custom_Hotel-Los_Angeles_California.html</t>
@@ -890,6 +974,9 @@
 "A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet ,...I stayed here as my wife found found your hotel over the internet , it looked like a great hotel as per description formulated, like a hotel from the sixties an old "Motel " style , decor etc etc .I waited at the terminal for 40 minutes , No transfer bus arrived at the designated point , so I took a taxi to your hotel , upon approach to the hotel I really thought the taxi diver was taking me to another hotel , I kept looking out for this sixties style " Motel ", suddenly he pulled up at this 12 story hotel .Okay so where is the building as per internet photo ?Check in went smoothly , friendly front desk staff .I stayed in 1120 - 1121 , as my friend was visiting from San Diego.Room basic , smell of cigarettes , dusty and felt unused , Bed comfortable , bathroom clean , amenities perfect , windows filthy , inside and out .overall my stay was ok , pool area ok,  water warm , sun beds very uncomfortable one cannot lie flat due to the style of bed .late check out went was appreciated .thank you , your hotel needs a little TLC to make it more attractive to flying guests."A suggestion for future , to offer non smoking smoke rooms to on line bookings over the internet , or at check in to offer / ask if you would like a non smoking room."More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r556048097-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -914,6 +1001,9 @@
     <t>I decided last minute to stay here prior to my flight out of LAX. I have stayed at multiple hotels while on vacation and this is the first hotel where I felt very welcomed by the check in. The gentlemen Sam at the front desk did not rush me. I appreciated the service and professionalism that was provided. I would recommend this hotel any day due to the courtesy and kindness THANK YOU SAM!!!More</t>
   </si>
   <si>
+    <t>Chris B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r553867879-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -938,6 +1028,9 @@
     <t>I agree with the previous reviewer...this is a good value hotel.  Maybe a bit scruffy around the edges, but clean and excellent and welcoming staff.  A prompt pick up at LAX by the free shuttle (ring them as you exit the terminal) put us into the hotel and a room about 60 minutes after we landed...a record (and well done LAX airport).  Picked a room on the 9th floor...nice and quiet.  We picked the place as its a quick walk to the Belona bird reserve.  Down Lincoln Drive theres a great selection of local restaurants.  We chose the local Italian which was excellent.More</t>
   </si>
   <si>
+    <t>slwdesign</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550716946-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -962,6 +1055,9 @@
     <t>Not cheap, needs some refreshing, cleaning and updating. Very noisy. I didn't like the noise so I left a day earlier.  I told the receptionist my concern about the noise,  in the hallway and he seems hardly sorry. Close to the Airport but I don't recommend.More</t>
   </si>
   <si>
+    <t>Lilian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550707073-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -977,6 +1073,9 @@
     <t>The hotel is extremely low end, at best comparable to a two star motel or hostel at best, and advertised as a boutique hotel. The hotel and especially the room smells awful, like heavy smokers. The guests are questionable and will cause loud noises until 3AM. The service is non existent and what you'd expect at a two star motel/hostel, not what you'd expect to pay 200 dollars for. It's not even worth 50 dollars. The hotel rooms are not up to standards to any standard hotel with horribly uncomfortable and basic beds that reminds me of hostels and blackout shades that absolutely don't block out light.More</t>
   </si>
   <si>
+    <t>placid1Wa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r550446954-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1001,6 +1100,9 @@
     <t>Close to the airport. Shuttle service is scheduled and fills up quickly.  Taxi service should be your backup.   Bedroom was clean.  Beds and pillows are ok. The beds are very low to the ground.  Once in bed, you don’t notice.  Shower was broken. The air vents in the room were quite dirty.   However, the price was good and it was a short stay for a night time flight layover.  More</t>
   </si>
   <si>
+    <t>Alexandr C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r549081499-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1025,6 +1127,9 @@
     <t>Thanks for the service from the workman Sem S. He was very loyal and tried to understand and help. I do not speak English. And it was difficult for me to explain what I needed. He was not angry. And with love helpedMore</t>
   </si>
   <si>
+    <t>Shavon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r548763806-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1049,6 +1154,9 @@
     <t>I was referred to Custom Hotel by my Sister Breann, after asking her what were some nice hotels she could recommend near LAX. My friend and I received excellent service; Ms. J was very pleasant in helping us with our breakfast, Mr. Hugo was exceptional in his service to us as well, and Mrs. Breann ensured that we had a great stay. Service was so great my friend and I extended our check out time and we considered staying another night! Oh! The valet guys were soooo very nice and helpful, I haven't experienced valet service like that in a while.The Hotel is in a nice location and gives great views of L.A. Thanks for a great stay.~ShavonMore</t>
   </si>
   <si>
+    <t>Rachel B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r547089346-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1076,6 +1184,9 @@
     <t>I stay at a lot of Boutique properties. This was is the only one I could locate this close to LAX. It is most certainly an converted office building. I was impressed with the use of space. The attention to detail. The quiet of the rooms. I wasn't here long enough to check our or enjoy the amenities but I would certainly choose this property again if I find myself in the area. Customer service was on par with this level or hospitality. Thanks for being a great choice in an over crowded market.More</t>
   </si>
   <si>
+    <t>kevincornelius</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r542536274-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1103,6 +1214,9 @@
     <t>i would like to say i had the best experince at the " Custom Hotel " Weschester Ca. In the LA area. The two people who checked me in are the best at what they do..... make people happy. There names are Alfred Roberts and Breann Smith.. I was so stressed out when I got to the front desk. I had my crew with me and there was a glitch. They fixed it in a heart beat and sent me and my crew of about 7 people on our way to our rooms. If not for these two pleasant people I would have freaked out. Thank again for there patience and help. The rooms were wonderful...very clean and homey. I highly recommend this hotel and the wonderful staff. I give them 5 gold stars. Please try this hotel.... you will love it. Also got the chance to meet the general manager Gary Goroyan.... very nice guy.... classy dresser... got the James Bond look to him....classy ! Again please try this hotel....you will love it. Thank you again Custom Hotel :)More</t>
   </si>
   <si>
+    <t>NS422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r541678142-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1127,6 +1241,9 @@
     <t>Got in around 11:00pm and I am pretty sure they sold my room!  They asked for proof(lucky I had a printout of my reservation with an online booking company!). It seemed like a bad spot at night but it was quiet.  It’s a weird little wanna-be boutique hotel.  And if my queen bed was really a queen, I am shocked.  Paid for queen bed and got a weird little double on a shelf, very overpriced for what I got!More</t>
   </si>
   <si>
+    <t>Getsaround2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r540197838-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1151,6 +1268,9 @@
     <t>I stayed here for one night before I caught a coach out of the city, It does the job but it's nothing special, when I first got to my floor I felt like I was in a scene from "The Shinning" dark, gloomy and horrid I mean some of the hallways were painted black !! Very very odd and very very dated, I was in a twin room with two double beds the space was quite limited for the two of us (I was on tour so was sharing with another girl) The bathroom was very tiny and the bath shower didn't work properly either. My key card also stopped working a few times so I had to keep getting security toLet me in. I can't comment on breakfast as I was not up in time. Don't be fooled this hotel is not a "hotel airport" you are very close to the airport a urber drive away about a 6 min drive I spent 20mins asking shuttle drivers at the airport but they were going there so got the uber in the end. The hotel is advertised as being at the airport tho which is nothing other then annoying mind. There is a swimming pool but I did not use it. More</t>
   </si>
   <si>
+    <t>obgyndon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r539175776-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1175,6 +1295,9 @@
     <t>One king bed in the room.  The bed is only a mattress lying on the floor.  Height of the mattress is about 18 inches.  Two chairs in the room were also for midgets, only 18 inches high.  Was so bad I went to the front desk and told them that they had given me a room for midgets by mistake.  They laughed and said they would give me another room.  It was exactly the same. I am 74 and have bad knees.  Had to roll out onto the floor and then stand up.More</t>
   </si>
   <si>
+    <t>michaeeeeeel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r536292689-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1202,6 +1325,9 @@
     <t>Needed a place to stay last minute and booked this through Hotel Tonight. Overall, I would not recommend. Room needed a deep clean. Bathroom was decent size, but shower needed to be cleaned and/or replaced. The shower floor had major signs of wear and tear and did not drain well. Leaving me showering in ankle deep water. Thermostat could not be controlled, and was stuck at 71. This ended up being fine but never have experienced a lack of control before. If you’re in a pinch and need a place to stay, this will work, but if you’re not look elsewhere. More</t>
   </si>
   <si>
+    <t>Timothy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r534639589-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1253,6 +1379,9 @@
     <t>I've been to the Custom Hotel on 3 occasions in the last couple of months. The staff has made each stay great. Hotel amenities are consistently improving.  The location is unbeatable for convenience to the airport, Venice Beach, Santa Monica, and great restaurants. The rooms are larger then normal and provide some nice views. Will not disappoint.More</t>
   </si>
   <si>
+    <t>BoundtoTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r532173346-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1268,6 +1397,9 @@
     <t>I just stayed at Custom this week and loved my stay! The location was perfect for me and I thought my room wasspacious and neat as a pin clean. I had a few special requests ..even after normal business hours..and the staffalways went out of the way to take care of me. I did not have an opportunity to check out the bar/restaurant...I will have to try on my next trip! More</t>
   </si>
   <si>
+    <t>Liatush81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r532101202-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1287,6 +1419,9 @@
   </si>
   <si>
     <t>The hotel is great! I stayed there for one night and I arrived from LAX. They picked me up from the airport really quickly and it was pretty late at night. The staff were kind, they helped me get around and explained me about the local bus transportation.The bed was very comfortable and the room was well designed. The shower was a bit small but enjoyable.Overall i enjoyed my stay. More</t>
+  </si>
+  <si>
+    <t>Erika231682</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r527662030-Custom_Hotel-Los_Angeles_California.html</t>
@@ -1335,6 +1470,9 @@
 This Hotel Was Just Not Up My Hotel Standards. I Personally Would...After Seeing Only Good Reviews From Different Web Sites About This Hotel, I Decided To Make A Reservation &amp; Stay The Night.When I Landed @ The LAX Airport, I Called  The Hotel Requesting A Ride From their Complementary Airport Shuttle. I Was Told The Airport Shuttle Would Be Right Over To Pick Me Up.  I Waited 45 minutes. Upon Arriving I Checked Into This Hotel. The Hotel Staff Were friendly.However I Found The Online Pictures To Be Very Deceiving.  The Hotel is Not Nearly As Nice As I'd Hoped It To Be, Based Off The photos I Saw Online Of This Hotel.It's An Older Hotel, With Dark Dingy Hallways. As I Walked To My Room All I Could Smell Was The Odor Of Marijuana. My Room Was Very Small &amp; Dark. The Bed Was Basically A Wood Box With A Mattress. No Box Spring.  The Bed Was Very Low To The Ground. In The Bathroom My Toliet Was Leaking Water All Over The Bathroom Floor. I Kept My Shoes On My Feet While In My Room &amp; I Kept All My Bags Up Off The Floor.I Just Didn't Feel The Room Was Very Clean.  Which Caused Me Not To Feel Comfortable In That Room During My Short Stay. So I Guess, The Bottom Line Is, I'm Used To Marriott Quality Hotels or Nicer Hotels.This Hotel Was Just Not Up My Hotel Standards. I Personally Would Never Stay At This Hotel Again. If Your Someone Who Stays In Hotels Often &amp; Have Certain Hotel Stay Expectations, This Hotel Is Not For You Either.But if your Someone Who Just Wants To Find A Cheap Hotel Room Rate,Then This Hotel Is The Place For You. More</t>
   </si>
   <si>
+    <t>mookndile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r526374726-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1362,6 +1500,9 @@
     <t>Having lived on the westside the last five years I was shocked to find out about the hidden gem that is the Custom Hotel. I recently had some friends in town and they were looking for a place near LAX that was fun. Told them so stay at Custom after hearing how it's recently been under new management. Called the Sales manager Lindsay and she assured me my friends would enjoy their stay, and she was right. My friends loved the accessibility to all of the good things the westside has to offer, Santa Monica, Abbot Kinney, beaches and great restaurants/bars. It's also a great place to pregame by the pool before hitting the town. I'll be hanging out there more often and will always recommend to my friends who wanna be on the westside.More</t>
   </si>
   <si>
+    <t>Meakz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r526167443-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1386,6 +1527,9 @@
     <t>Basic hotel,  spacious fairly clean. Close to airport and supermarket, not much else around. Free shuttle bus.  Driver Tyrone is awesome. All the staff were really helpful. Couldn't figure out how to work the shower and the bath was really small.  Good for a quick stayMore</t>
   </si>
   <si>
+    <t>yeahcarebear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r523958146-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1410,6 +1554,9 @@
     <t>This was a wonderful hotel to visit prior to our flight leaving LAX. Very convenient with a free shuttle. The rooms and the facilities were fantastic. And the staff were absolutely wonderful when we raised a couple of discussion points, they very quickly came to superb arrangements for us. To lounge by the pool while awaiting our international flight was particularly great! The bed was super comfy. Everything was very good. The price was also great considering LAX airport prices. No complaints and I will definitely stay here again!  Thank you :)More</t>
   </si>
   <si>
+    <t>Walter R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r521532435-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1434,6 +1581,9 @@
     <t>Took a quick weekend getaway to LAX to escape the heat in PHX so we booked a room at the Custom Hotel. Trent and Jerson made our trip extra special by giving us these "Pilot in Training" wings. It was a nice touch since the hotel gave off a lot of aviation vibes. The room was nice, too. The first thing that caught our eye when we walked in was the rainbow neon light by the window. I've stayed in many hotels in my lifetime and I have  NEVER seen that before so that made the hotel memorable. Thank you guys!!!-Thomas and WalterMore</t>
   </si>
   <si>
+    <t>alexander v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r521344056-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1449,6 +1599,9 @@
     <t>The location was good and the employee named Trent was absolutely excellent. He went above and beyond to help me out. He pointed out the bus stop I needed for Venice beach as well as charged my phone in his personal office. He was very professional and courteous. On the other hand there was a nighttime employee who was at the computer all the way on the right if your facing the desk on september 3rd. He was absolutely useless and rude. He refused to fill up the water in the lobby or change the music by the pool. He was very rude. I complained about him to the night shift manager who comes in in the morning and all he said was "I'm sorry about that". If your staying for a night or 2 the hotel is fine. Don't expect much other than a good location and clean room. Pool was small. More</t>
   </si>
   <si>
+    <t>SGC6368</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r517189954-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1473,6 +1626,9 @@
     <t>Stayed here two nights in August 2017. It is fitted out to be a modern hipster hotel, good for 'Contiki tour' types but not for families. Ideally suited for backpackers with some money to burn. Not happy with the low height bed (near futon size) and traffic noise. Lighting in the bathroom needs increasing. Some fittings have been over painted to give impression of a refurbishment. More</t>
   </si>
   <si>
+    <t>JennaRandazzo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r515930241-Custom_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1489,6 +1645,9 @@
   </si>
   <si>
     <t>My husband and I spent the night here before our flight out of LAX (we rented a car from Turo and the lot is right out back, but that is the ONLY positive thing I can say about this hotel!) The pictures online are beyond deceiving. This "boutique" hotel should not be classified as anything more than a high rise frat house. The guy who checked us in had absolutely no personality and said a total of 5 words to us, name..credit card and id and then the room number. The rooms were tiny and FILTHY. I had a hard time even walking around the room with shoes on as there were someone else's toenail clipping all stuck to the rug on the side of the bed. The beds are TINY - felt like your getting into a child's bed. The room has no decorations on the walls and didn't even have a clock. I wouldn't stay here again if they paid me.More</t>
+  </si>
+  <si>
+    <t>Starga01zer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d656235-r514897460-Custom_Hotel-Los_Angeles_California.html</t>
@@ -2011,43 +2170,47 @@
       <c r="A2" t="n">
         <v>56310</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>134216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2065,56 +2228,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56310</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>134217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2126,56 +2293,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56310</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>8208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2193,56 +2364,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56310</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>134218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2254,47 +2429,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56310</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>134219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -2311,47 +2490,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56310</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>134220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -2368,56 +2551,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56310</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2433,56 +2620,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56310</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>11863</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2494,56 +2685,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56310</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>134221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2559,56 +2754,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56310</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>134222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2620,56 +2819,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56310</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>111538</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2685,56 +2888,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56310</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>105132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2746,56 +2953,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56310</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>134223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2811,56 +3022,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56310</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>134224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2872,56 +3087,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56310</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>134225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2933,47 +3152,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56310</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -2990,56 +3213,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56310</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>134226</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3055,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56310</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>134227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3120,56 +3351,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56310</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>134228</v>
+      </c>
+      <c r="C20" t="s">
+        <v>207</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3181,56 +3416,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56310</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>134229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3242,47 +3481,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56310</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>28542</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -3299,56 +3542,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56310</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>37916</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3366,56 +3613,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56310</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>134230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3431,56 +3682,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56310</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>134231</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3498,56 +3753,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56310</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>134232</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3563,56 +3822,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56310</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>134233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3630,56 +3893,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56310</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>134234</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3691,56 +3958,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="X28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56310</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>4206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3756,56 +4027,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56310</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3817,56 +4092,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56310</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>6529</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3882,47 +4161,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="X31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56310</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>134235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3939,56 +4222,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56310</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>134236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>327</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4006,56 +4293,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="X33" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56310</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>134237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4067,56 +4358,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56310</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>134238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4128,56 +4423,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56310</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>134239</v>
+      </c>
+      <c r="C36" t="s">
+        <v>351</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4195,56 +4494,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56310</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>8997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4260,56 +4563,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56310</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>134240</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4325,56 +4632,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56310</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>134241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4386,47 +4697,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="X39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="Y39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56310</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>134242</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
@@ -4443,56 +4758,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="X40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="Y40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56310</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>134243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>398</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4508,56 +4827,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="X41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="Y41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56310</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>134244</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="J42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="K42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="L42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="O42" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4569,56 +4892,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="X42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56310</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>5098</v>
+      </c>
+      <c r="C43" t="s">
+        <v>417</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="L43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="O43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4636,56 +4963,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="X43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="Y43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56310</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>134233</v>
+      </c>
+      <c r="C44" t="s">
+        <v>282</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="L44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O44" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4703,47 +5034,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="X44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Y44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56310</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>134245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>435</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -4760,56 +5095,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="X45" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Y45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56310</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>134246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>441</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4821,56 +5160,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X46" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y46" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56310</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>134247</v>
+      </c>
+      <c r="C47" t="s">
+        <v>449</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4882,56 +5225,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="X47" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="Y47" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56310</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>134248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>458</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="K48" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="L48" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O48" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -4949,56 +5296,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="X48" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56310</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>134249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5010,56 +5361,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="X49" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="Y49" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56310</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>134250</v>
+      </c>
+      <c r="C50" t="s">
+        <v>477</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="K50" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="L50" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5077,56 +5432,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="X50" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="Y50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56310</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>51394</v>
+      </c>
+      <c r="C51" t="s">
+        <v>486</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L51" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O51" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5144,56 +5503,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="X51" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56310</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>134251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>495</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="L52" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5205,56 +5568,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="X52" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Y52" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56310</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>134252</v>
+      </c>
+      <c r="C53" t="s">
+        <v>501</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="J53" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="K53" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O53" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5266,56 +5633,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="X53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="Y53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56310</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>134253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>510</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O54" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5331,56 +5702,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="X54" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56310</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>134254</v>
+      </c>
+      <c r="C55" t="s">
+        <v>517</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="O55" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5398,13 +5773,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="X55" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_177.xlsx
@@ -2171,7 +2171,7 @@
         <v>56310</v>
       </c>
       <c r="B2" t="n">
-        <v>134216</v>
+        <v>165086</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2242,7 +2242,7 @@
         <v>56310</v>
       </c>
       <c r="B3" t="n">
-        <v>134217</v>
+        <v>165087</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2378,7 +2378,7 @@
         <v>56310</v>
       </c>
       <c r="B5" t="n">
-        <v>134218</v>
+        <v>165088</v>
       </c>
       <c r="C5" t="s">
         <v>75</v>
@@ -2443,7 +2443,7 @@
         <v>56310</v>
       </c>
       <c r="B6" t="n">
-        <v>134219</v>
+        <v>165089</v>
       </c>
       <c r="C6" t="s">
         <v>84</v>
@@ -2504,7 +2504,7 @@
         <v>56310</v>
       </c>
       <c r="B7" t="n">
-        <v>134220</v>
+        <v>165090</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -2699,7 +2699,7 @@
         <v>56310</v>
       </c>
       <c r="B10" t="n">
-        <v>134221</v>
+        <v>165091</v>
       </c>
       <c r="C10" t="s">
         <v>120</v>
@@ -2768,7 +2768,7 @@
         <v>56310</v>
       </c>
       <c r="B11" t="n">
-        <v>134222</v>
+        <v>165092</v>
       </c>
       <c r="C11" t="s">
         <v>127</v>
@@ -2967,7 +2967,7 @@
         <v>56310</v>
       </c>
       <c r="B14" t="n">
-        <v>134223</v>
+        <v>165093</v>
       </c>
       <c r="C14" t="s">
         <v>154</v>
@@ -3036,7 +3036,7 @@
         <v>56310</v>
       </c>
       <c r="B15" t="n">
-        <v>134224</v>
+        <v>165094</v>
       </c>
       <c r="C15" t="s">
         <v>164</v>
@@ -3101,7 +3101,7 @@
         <v>56310</v>
       </c>
       <c r="B16" t="n">
-        <v>134225</v>
+        <v>165095</v>
       </c>
       <c r="C16" t="s">
         <v>170</v>
@@ -3227,7 +3227,7 @@
         <v>56310</v>
       </c>
       <c r="B18" t="n">
-        <v>134226</v>
+        <v>165096</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
@@ -3296,7 +3296,7 @@
         <v>56310</v>
       </c>
       <c r="B19" t="n">
-        <v>134227</v>
+        <v>165097</v>
       </c>
       <c r="C19" t="s">
         <v>197</v>
@@ -3365,7 +3365,7 @@
         <v>56310</v>
       </c>
       <c r="B20" t="n">
-        <v>134228</v>
+        <v>165098</v>
       </c>
       <c r="C20" t="s">
         <v>207</v>
@@ -3430,7 +3430,7 @@
         <v>56310</v>
       </c>
       <c r="B21" t="n">
-        <v>134229</v>
+        <v>165099</v>
       </c>
       <c r="C21" t="s">
         <v>216</v>
@@ -3627,7 +3627,7 @@
         <v>56310</v>
       </c>
       <c r="B24" t="n">
-        <v>134230</v>
+        <v>165100</v>
       </c>
       <c r="C24" t="s">
         <v>243</v>
@@ -3696,7 +3696,7 @@
         <v>56310</v>
       </c>
       <c r="B25" t="n">
-        <v>134231</v>
+        <v>165101</v>
       </c>
       <c r="C25" t="s">
         <v>253</v>
@@ -3767,7 +3767,7 @@
         <v>56310</v>
       </c>
       <c r="B26" t="n">
-        <v>134232</v>
+        <v>165102</v>
       </c>
       <c r="C26" t="s">
         <v>263</v>
@@ -3836,7 +3836,7 @@
         <v>56310</v>
       </c>
       <c r="B27" t="n">
-        <v>134233</v>
+        <v>165103</v>
       </c>
       <c r="C27" t="s">
         <v>272</v>
@@ -3907,7 +3907,7 @@
         <v>56310</v>
       </c>
       <c r="B28" t="n">
-        <v>134234</v>
+        <v>134228</v>
       </c>
       <c r="C28" t="s">
         <v>282</v>
@@ -4175,7 +4175,7 @@
         <v>56310</v>
       </c>
       <c r="B32" t="n">
-        <v>134235</v>
+        <v>165104</v>
       </c>
       <c r="C32" t="s">
         <v>318</v>
@@ -4236,7 +4236,7 @@
         <v>56310</v>
       </c>
       <c r="B33" t="n">
-        <v>134236</v>
+        <v>165105</v>
       </c>
       <c r="C33" t="s">
         <v>327</v>
@@ -4307,7 +4307,7 @@
         <v>56310</v>
       </c>
       <c r="B34" t="n">
-        <v>134237</v>
+        <v>165106</v>
       </c>
       <c r="C34" t="s">
         <v>333</v>
@@ -4372,7 +4372,7 @@
         <v>56310</v>
       </c>
       <c r="B35" t="n">
-        <v>134238</v>
+        <v>165107</v>
       </c>
       <c r="C35" t="s">
         <v>342</v>
@@ -4437,7 +4437,7 @@
         <v>56310</v>
       </c>
       <c r="B36" t="n">
-        <v>134239</v>
+        <v>165108</v>
       </c>
       <c r="C36" t="s">
         <v>351</v>
@@ -4577,7 +4577,7 @@
         <v>56310</v>
       </c>
       <c r="B38" t="n">
-        <v>134240</v>
+        <v>165109</v>
       </c>
       <c r="C38" t="s">
         <v>370</v>
@@ -4646,7 +4646,7 @@
         <v>56310</v>
       </c>
       <c r="B39" t="n">
-        <v>134241</v>
+        <v>165110</v>
       </c>
       <c r="C39" t="s">
         <v>380</v>
@@ -4711,7 +4711,7 @@
         <v>56310</v>
       </c>
       <c r="B40" t="n">
-        <v>134242</v>
+        <v>165111</v>
       </c>
       <c r="C40" t="s">
         <v>389</v>
@@ -4772,7 +4772,7 @@
         <v>56310</v>
       </c>
       <c r="B41" t="n">
-        <v>134243</v>
+        <v>165112</v>
       </c>
       <c r="C41" t="s">
         <v>398</v>
@@ -4841,7 +4841,7 @@
         <v>56310</v>
       </c>
       <c r="B42" t="n">
-        <v>134244</v>
+        <v>165113</v>
       </c>
       <c r="C42" t="s">
         <v>407</v>
@@ -4977,7 +4977,7 @@
         <v>56310</v>
       </c>
       <c r="B44" t="n">
-        <v>134233</v>
+        <v>134228</v>
       </c>
       <c r="C44" t="s">
         <v>282</v>
@@ -5048,7 +5048,7 @@
         <v>56310</v>
       </c>
       <c r="B45" t="n">
-        <v>134245</v>
+        <v>165114</v>
       </c>
       <c r="C45" t="s">
         <v>435</v>
@@ -5109,7 +5109,7 @@
         <v>56310</v>
       </c>
       <c r="B46" t="n">
-        <v>134246</v>
+        <v>165115</v>
       </c>
       <c r="C46" t="s">
         <v>441</v>
@@ -5174,7 +5174,7 @@
         <v>56310</v>
       </c>
       <c r="B47" t="n">
-        <v>134247</v>
+        <v>165116</v>
       </c>
       <c r="C47" t="s">
         <v>449</v>
@@ -5239,7 +5239,7 @@
         <v>56310</v>
       </c>
       <c r="B48" t="n">
-        <v>134248</v>
+        <v>165117</v>
       </c>
       <c r="C48" t="s">
         <v>458</v>
@@ -5310,7 +5310,7 @@
         <v>56310</v>
       </c>
       <c r="B49" t="n">
-        <v>134249</v>
+        <v>165118</v>
       </c>
       <c r="C49" t="s">
         <v>468</v>
@@ -5375,7 +5375,7 @@
         <v>56310</v>
       </c>
       <c r="B50" t="n">
-        <v>134250</v>
+        <v>165119</v>
       </c>
       <c r="C50" t="s">
         <v>477</v>
@@ -5517,7 +5517,7 @@
         <v>56310</v>
       </c>
       <c r="B52" t="n">
-        <v>134251</v>
+        <v>165120</v>
       </c>
       <c r="C52" t="s">
         <v>495</v>
@@ -5582,7 +5582,7 @@
         <v>56310</v>
       </c>
       <c r="B53" t="n">
-        <v>134252</v>
+        <v>165121</v>
       </c>
       <c r="C53" t="s">
         <v>501</v>
@@ -5647,7 +5647,7 @@
         <v>56310</v>
       </c>
       <c r="B54" t="n">
-        <v>134253</v>
+        <v>165122</v>
       </c>
       <c r="C54" t="s">
         <v>510</v>
@@ -5716,7 +5716,7 @@
         <v>56310</v>
       </c>
       <c r="B55" t="n">
-        <v>134254</v>
+        <v>165123</v>
       </c>
       <c r="C55" t="s">
         <v>517</v>
